--- a/tools/excel/scf/scf-2025.1.1.xlsx
+++ b/tools/excel/scf/scf-2025.1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\scf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B77A6-16A6-47E8-BA4D-884FB6DDEC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109A9CE5-6F23-4F89-9777-93856C5096DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7691" uniqueCount="5139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7689" uniqueCount="5138">
   <si>
     <t>type</t>
   </si>
@@ -11500,9 +11500,6 @@
   </si>
   <si>
     <t xml:space="preserve">Does the organization utilize fire suppression devices/systems that provide automatic notification of any activation to organizational personnel and emergency responders? </t>
-  </si>
-  <si>
-    <t>Physical &amp; Environmental Security</t>
   </si>
   <si>
     <t>PES-08.3</t>
@@ -16356,11 +16353,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1300"/>
+  <dimension ref="A1:G1298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D949" sqref="D949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37825,11 +37822,26 @@
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>49</v>
+      </c>
       <c r="B948">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C948" t="s">
+        <v>3769</v>
       </c>
       <c r="D948" t="s">
-        <v>3769</v>
+        <v>3770</v>
+      </c>
+      <c r="E948" t="s">
+        <v>3771</v>
+      </c>
+      <c r="F948" t="s">
+        <v>3772</v>
+      </c>
+      <c r="G948" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.3">
@@ -37840,27 +37852,42 @@
         <v>2</v>
       </c>
       <c r="C949" t="s">
-        <v>3770</v>
+        <v>3773</v>
       </c>
       <c r="D949" t="s">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="E949" t="s">
-        <v>3772</v>
+        <v>3775</v>
       </c>
       <c r="F949" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
       <c r="G949" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>49</v>
+      </c>
       <c r="B950">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C950" t="s">
+        <v>3777</v>
       </c>
       <c r="D950" t="s">
-        <v>3624</v>
+        <v>3778</v>
+      </c>
+      <c r="E950" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F950" t="s">
+        <v>3780</v>
+      </c>
+      <c r="G950" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.3">
@@ -37871,16 +37898,16 @@
         <v>2</v>
       </c>
       <c r="C951" t="s">
-        <v>3774</v>
+        <v>3781</v>
       </c>
       <c r="D951" t="s">
-        <v>3775</v>
+        <v>3782</v>
       </c>
       <c r="E951" t="s">
-        <v>3776</v>
+        <v>3783</v>
       </c>
       <c r="F951" t="s">
-        <v>3777</v>
+        <v>3784</v>
       </c>
       <c r="G951" t="s">
         <v>124</v>
@@ -37894,16 +37921,16 @@
         <v>2</v>
       </c>
       <c r="C952" t="s">
-        <v>3778</v>
+        <v>3785</v>
       </c>
       <c r="D952" t="s">
-        <v>3779</v>
+        <v>3786</v>
       </c>
       <c r="E952" t="s">
-        <v>3780</v>
+        <v>3787</v>
       </c>
       <c r="F952" t="s">
-        <v>3781</v>
+        <v>3788</v>
       </c>
       <c r="G952" t="s">
         <v>124</v>
@@ -37917,19 +37944,19 @@
         <v>2</v>
       </c>
       <c r="C953" t="s">
-        <v>3782</v>
+        <v>3789</v>
       </c>
       <c r="D953" t="s">
-        <v>3783</v>
+        <v>3790</v>
       </c>
       <c r="E953" t="s">
-        <v>3784</v>
+        <v>3791</v>
       </c>
       <c r="F953" t="s">
-        <v>3785</v>
+        <v>3792</v>
       </c>
       <c r="G953" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.3">
@@ -37940,16 +37967,16 @@
         <v>2</v>
       </c>
       <c r="C954" t="s">
-        <v>3786</v>
+        <v>3793</v>
       </c>
       <c r="D954" t="s">
-        <v>3787</v>
+        <v>3794</v>
       </c>
       <c r="E954" t="s">
-        <v>3788</v>
+        <v>3795</v>
       </c>
       <c r="F954" t="s">
-        <v>3789</v>
+        <v>3796</v>
       </c>
       <c r="G954" t="s">
         <v>124</v>
@@ -37963,19 +37990,19 @@
         <v>2</v>
       </c>
       <c r="C955" t="s">
-        <v>3790</v>
+        <v>3797</v>
       </c>
       <c r="D955" t="s">
-        <v>3791</v>
+        <v>3798</v>
       </c>
       <c r="E955" t="s">
-        <v>3792</v>
+        <v>3799</v>
       </c>
       <c r="F955" t="s">
-        <v>3793</v>
+        <v>3800</v>
       </c>
       <c r="G955" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.3">
@@ -37986,19 +38013,19 @@
         <v>2</v>
       </c>
       <c r="C956" t="s">
-        <v>3794</v>
+        <v>3801</v>
       </c>
       <c r="D956" t="s">
-        <v>3795</v>
+        <v>3802</v>
       </c>
       <c r="E956" t="s">
-        <v>3796</v>
+        <v>3803</v>
       </c>
       <c r="F956" t="s">
-        <v>3797</v>
+        <v>3804</v>
       </c>
       <c r="G956" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.3">
@@ -38009,16 +38036,16 @@
         <v>2</v>
       </c>
       <c r="C957" t="s">
-        <v>3798</v>
+        <v>3805</v>
       </c>
       <c r="D957" t="s">
-        <v>3799</v>
+        <v>3806</v>
       </c>
       <c r="E957" t="s">
-        <v>3800</v>
+        <v>3807</v>
       </c>
       <c r="F957" t="s">
-        <v>3801</v>
+        <v>3808</v>
       </c>
       <c r="G957" t="s">
         <v>124</v>
@@ -38032,16 +38059,16 @@
         <v>2</v>
       </c>
       <c r="C958" t="s">
-        <v>3802</v>
+        <v>3809</v>
       </c>
       <c r="D958" t="s">
-        <v>3803</v>
+        <v>3810</v>
       </c>
       <c r="E958" t="s">
-        <v>3804</v>
+        <v>3811</v>
       </c>
       <c r="F958" t="s">
-        <v>3805</v>
+        <v>3812</v>
       </c>
       <c r="G958" t="s">
         <v>34</v>
@@ -38055,19 +38082,19 @@
         <v>2</v>
       </c>
       <c r="C959" t="s">
-        <v>3806</v>
+        <v>3813</v>
       </c>
       <c r="D959" t="s">
-        <v>3807</v>
+        <v>3814</v>
       </c>
       <c r="E959" t="s">
-        <v>3808</v>
+        <v>3815</v>
       </c>
       <c r="F959" t="s">
-        <v>3809</v>
+        <v>3816</v>
       </c>
       <c r="G959" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.3">
@@ -38078,19 +38105,19 @@
         <v>2</v>
       </c>
       <c r="C960" t="s">
-        <v>3810</v>
+        <v>3817</v>
       </c>
       <c r="D960" t="s">
-        <v>3811</v>
+        <v>3818</v>
       </c>
       <c r="E960" t="s">
-        <v>3812</v>
+        <v>3819</v>
       </c>
       <c r="F960" t="s">
-        <v>3813</v>
+        <v>3820</v>
       </c>
       <c r="G960" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.3">
@@ -38101,19 +38128,19 @@
         <v>2</v>
       </c>
       <c r="C961" t="s">
-        <v>3814</v>
+        <v>3821</v>
       </c>
       <c r="D961" t="s">
-        <v>3815</v>
+        <v>3822</v>
       </c>
       <c r="E961" t="s">
-        <v>3816</v>
+        <v>3823</v>
       </c>
       <c r="F961" t="s">
-        <v>3817</v>
+        <v>3824</v>
       </c>
       <c r="G961" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.3">
@@ -38124,42 +38151,27 @@
         <v>2</v>
       </c>
       <c r="C962" t="s">
-        <v>3818</v>
+        <v>3825</v>
       </c>
       <c r="D962" t="s">
-        <v>3819</v>
+        <v>3826</v>
       </c>
       <c r="E962" t="s">
-        <v>3820</v>
+        <v>3827</v>
       </c>
       <c r="F962" t="s">
-        <v>3821</v>
+        <v>3828</v>
       </c>
       <c r="G962" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A963" t="s">
-        <v>49</v>
-      </c>
       <c r="B963">
-        <v>2</v>
-      </c>
-      <c r="C963" t="s">
-        <v>3822</v>
+        <v>1</v>
       </c>
       <c r="D963" t="s">
-        <v>3823</v>
-      </c>
-      <c r="E963" t="s">
-        <v>3824</v>
-      </c>
-      <c r="F963" t="s">
-        <v>3825</v>
-      </c>
-      <c r="G963" t="s">
-        <v>59</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.3">
@@ -38170,27 +38182,42 @@
         <v>2</v>
       </c>
       <c r="C964" t="s">
-        <v>3826</v>
+        <v>3830</v>
       </c>
       <c r="D964" t="s">
-        <v>3827</v>
+        <v>3831</v>
       </c>
       <c r="E964" t="s">
-        <v>3828</v>
+        <v>3832</v>
       </c>
       <c r="F964" t="s">
-        <v>3829</v>
+        <v>3833</v>
       </c>
       <c r="G964" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>49</v>
+      </c>
+      <c r="B965">
+        <v>2</v>
+      </c>
+      <c r="C965" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D965" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E965" t="s">
+        <v>3836</v>
+      </c>
+      <c r="F965" t="s">
+        <v>3837</v>
+      </c>
+      <c r="G965" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B965">
-        <v>1</v>
-      </c>
-      <c r="D965" t="s">
-        <v>3830</v>
       </c>
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.3">
@@ -38201,19 +38228,19 @@
         <v>2</v>
       </c>
       <c r="C966" t="s">
-        <v>3831</v>
+        <v>3838</v>
       </c>
       <c r="D966" t="s">
-        <v>3832</v>
+        <v>3839</v>
       </c>
       <c r="E966" t="s">
-        <v>3833</v>
+        <v>3840</v>
       </c>
       <c r="F966" t="s">
-        <v>3834</v>
+        <v>3841</v>
       </c>
       <c r="G966" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.3">
@@ -38224,16 +38251,16 @@
         <v>2</v>
       </c>
       <c r="C967" t="s">
-        <v>3835</v>
+        <v>3842</v>
       </c>
       <c r="D967" t="s">
-        <v>3836</v>
+        <v>3843</v>
       </c>
       <c r="E967" t="s">
-        <v>3837</v>
+        <v>3844</v>
       </c>
       <c r="F967" t="s">
-        <v>3838</v>
+        <v>3845</v>
       </c>
       <c r="G967" t="s">
         <v>59</v>
@@ -38247,19 +38274,19 @@
         <v>2</v>
       </c>
       <c r="C968" t="s">
-        <v>3839</v>
+        <v>3846</v>
       </c>
       <c r="D968" t="s">
-        <v>3840</v>
+        <v>3847</v>
       </c>
       <c r="E968" t="s">
-        <v>3841</v>
+        <v>3848</v>
       </c>
       <c r="F968" t="s">
-        <v>3842</v>
+        <v>3849</v>
       </c>
       <c r="G968" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.3">
@@ -38270,16 +38297,16 @@
         <v>2</v>
       </c>
       <c r="C969" t="s">
-        <v>3843</v>
+        <v>3850</v>
       </c>
       <c r="D969" t="s">
-        <v>3844</v>
+        <v>3851</v>
       </c>
       <c r="E969" t="s">
-        <v>3845</v>
+        <v>3852</v>
       </c>
       <c r="F969" t="s">
-        <v>3846</v>
+        <v>3853</v>
       </c>
       <c r="G969" t="s">
         <v>59</v>
@@ -38293,16 +38320,16 @@
         <v>2</v>
       </c>
       <c r="C970" t="s">
-        <v>3847</v>
+        <v>3854</v>
       </c>
       <c r="D970" t="s">
-        <v>3848</v>
+        <v>3855</v>
       </c>
       <c r="E970" t="s">
-        <v>3849</v>
+        <v>3856</v>
       </c>
       <c r="F970" t="s">
-        <v>3850</v>
+        <v>3857</v>
       </c>
       <c r="G970" t="s">
         <v>59</v>
@@ -38316,19 +38343,19 @@
         <v>2</v>
       </c>
       <c r="C971" t="s">
-        <v>3851</v>
+        <v>3858</v>
       </c>
       <c r="D971" t="s">
-        <v>3852</v>
+        <v>3859</v>
       </c>
       <c r="E971" t="s">
-        <v>3853</v>
+        <v>3860</v>
       </c>
       <c r="F971" t="s">
-        <v>3854</v>
+        <v>3861</v>
       </c>
       <c r="G971" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.3">
@@ -38339,19 +38366,19 @@
         <v>2</v>
       </c>
       <c r="C972" t="s">
-        <v>3855</v>
+        <v>3862</v>
       </c>
       <c r="D972" t="s">
-        <v>3856</v>
+        <v>3863</v>
       </c>
       <c r="E972" t="s">
-        <v>3857</v>
+        <v>3864</v>
       </c>
       <c r="F972" t="s">
-        <v>3858</v>
+        <v>3865</v>
       </c>
       <c r="G972" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.3">
@@ -38362,16 +38389,16 @@
         <v>2</v>
       </c>
       <c r="C973" t="s">
-        <v>3859</v>
+        <v>3866</v>
       </c>
       <c r="D973" t="s">
-        <v>3860</v>
+        <v>3867</v>
       </c>
       <c r="E973" t="s">
-        <v>3861</v>
+        <v>3868</v>
       </c>
       <c r="F973" t="s">
-        <v>3862</v>
+        <v>3869</v>
       </c>
       <c r="G973" t="s">
         <v>32</v>
@@ -38385,16 +38412,16 @@
         <v>2</v>
       </c>
       <c r="C974" t="s">
-        <v>3863</v>
+        <v>3870</v>
       </c>
       <c r="D974" t="s">
-        <v>3864</v>
+        <v>3871</v>
       </c>
       <c r="E974" t="s">
-        <v>3865</v>
+        <v>3872</v>
       </c>
       <c r="F974" t="s">
-        <v>3866</v>
+        <v>3873</v>
       </c>
       <c r="G974" t="s">
         <v>32</v>
@@ -38408,16 +38435,16 @@
         <v>2</v>
       </c>
       <c r="C975" t="s">
-        <v>3867</v>
+        <v>3874</v>
       </c>
       <c r="D975" t="s">
-        <v>3868</v>
+        <v>3875</v>
       </c>
       <c r="E975" t="s">
-        <v>3869</v>
+        <v>3876</v>
       </c>
       <c r="F975" t="s">
-        <v>3870</v>
+        <v>3877</v>
       </c>
       <c r="G975" t="s">
         <v>32</v>
@@ -38431,16 +38458,16 @@
         <v>2</v>
       </c>
       <c r="C976" t="s">
-        <v>3871</v>
+        <v>3878</v>
       </c>
       <c r="D976" t="s">
-        <v>3872</v>
+        <v>3879</v>
       </c>
       <c r="E976" t="s">
-        <v>3873</v>
+        <v>3880</v>
       </c>
       <c r="F976" t="s">
-        <v>3874</v>
+        <v>3881</v>
       </c>
       <c r="G976" t="s">
         <v>32</v>
@@ -38454,19 +38481,19 @@
         <v>2</v>
       </c>
       <c r="C977" t="s">
-        <v>3875</v>
+        <v>3882</v>
       </c>
       <c r="D977" t="s">
-        <v>3876</v>
+        <v>3883</v>
       </c>
       <c r="E977" t="s">
-        <v>3877</v>
+        <v>3884</v>
       </c>
       <c r="F977" t="s">
-        <v>3878</v>
+        <v>3885</v>
       </c>
       <c r="G977" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.3">
@@ -38477,19 +38504,19 @@
         <v>2</v>
       </c>
       <c r="C978" t="s">
-        <v>3879</v>
+        <v>3886</v>
       </c>
       <c r="D978" t="s">
-        <v>3880</v>
+        <v>3887</v>
       </c>
       <c r="E978" t="s">
-        <v>3881</v>
+        <v>3888</v>
       </c>
       <c r="F978" t="s">
-        <v>3882</v>
+        <v>3889</v>
       </c>
       <c r="G978" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.3">
@@ -38500,16 +38527,16 @@
         <v>2</v>
       </c>
       <c r="C979" t="s">
-        <v>3883</v>
+        <v>3890</v>
       </c>
       <c r="D979" t="s">
-        <v>3884</v>
+        <v>3891</v>
       </c>
       <c r="E979" t="s">
-        <v>3885</v>
+        <v>3892</v>
       </c>
       <c r="F979" t="s">
-        <v>3886</v>
+        <v>3893</v>
       </c>
       <c r="G979" t="s">
         <v>124</v>
@@ -38523,19 +38550,19 @@
         <v>2</v>
       </c>
       <c r="C980" t="s">
-        <v>3887</v>
+        <v>3894</v>
       </c>
       <c r="D980" t="s">
-        <v>3888</v>
+        <v>3895</v>
       </c>
       <c r="E980" t="s">
-        <v>3889</v>
+        <v>3896</v>
       </c>
       <c r="F980" t="s">
-        <v>3890</v>
+        <v>3897</v>
       </c>
       <c r="G980" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.3">
@@ -38546,19 +38573,19 @@
         <v>2</v>
       </c>
       <c r="C981" t="s">
-        <v>3891</v>
+        <v>3898</v>
       </c>
       <c r="D981" t="s">
-        <v>3892</v>
+        <v>3899</v>
       </c>
       <c r="E981" t="s">
-        <v>3893</v>
+        <v>3900</v>
       </c>
       <c r="F981" t="s">
-        <v>3894</v>
+        <v>3901</v>
       </c>
       <c r="G981" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.3">
@@ -38569,19 +38596,19 @@
         <v>2</v>
       </c>
       <c r="C982" t="s">
-        <v>3895</v>
+        <v>3902</v>
       </c>
       <c r="D982" t="s">
-        <v>3896</v>
+        <v>3903</v>
       </c>
       <c r="E982" t="s">
-        <v>3897</v>
+        <v>3904</v>
       </c>
       <c r="F982" t="s">
-        <v>3898</v>
+        <v>3905</v>
       </c>
       <c r="G982" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.3">
@@ -38592,16 +38619,16 @@
         <v>2</v>
       </c>
       <c r="C983" t="s">
-        <v>3899</v>
+        <v>3906</v>
       </c>
       <c r="D983" t="s">
-        <v>3900</v>
+        <v>3907</v>
       </c>
       <c r="E983" t="s">
-        <v>3901</v>
+        <v>3908</v>
       </c>
       <c r="F983" t="s">
-        <v>3902</v>
+        <v>3909</v>
       </c>
       <c r="G983" t="s">
         <v>32</v>
@@ -38615,19 +38642,19 @@
         <v>2</v>
       </c>
       <c r="C984" t="s">
-        <v>3903</v>
+        <v>3910</v>
       </c>
       <c r="D984" t="s">
-        <v>3904</v>
+        <v>3911</v>
       </c>
       <c r="E984" t="s">
-        <v>3905</v>
+        <v>3912</v>
       </c>
       <c r="F984" t="s">
-        <v>3906</v>
+        <v>3913</v>
       </c>
       <c r="G984" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.3">
@@ -38638,16 +38665,16 @@
         <v>2</v>
       </c>
       <c r="C985" t="s">
-        <v>3907</v>
+        <v>3914</v>
       </c>
       <c r="D985" t="s">
-        <v>3908</v>
+        <v>3915</v>
       </c>
       <c r="E985" t="s">
-        <v>3909</v>
+        <v>3916</v>
       </c>
       <c r="F985" t="s">
-        <v>3910</v>
+        <v>3917</v>
       </c>
       <c r="G985" t="s">
         <v>32</v>
@@ -38661,16 +38688,16 @@
         <v>2</v>
       </c>
       <c r="C986" t="s">
-        <v>3911</v>
+        <v>3918</v>
       </c>
       <c r="D986" t="s">
-        <v>3912</v>
+        <v>3919</v>
       </c>
       <c r="E986" t="s">
-        <v>3913</v>
+        <v>3920</v>
       </c>
       <c r="F986" t="s">
-        <v>3914</v>
+        <v>3921</v>
       </c>
       <c r="G986" t="s">
         <v>32</v>
@@ -38684,16 +38711,16 @@
         <v>2</v>
       </c>
       <c r="C987" t="s">
-        <v>3915</v>
+        <v>3922</v>
       </c>
       <c r="D987" t="s">
-        <v>3916</v>
+        <v>3923</v>
       </c>
       <c r="E987" t="s">
-        <v>3917</v>
+        <v>3924</v>
       </c>
       <c r="F987" t="s">
-        <v>3918</v>
+        <v>3925</v>
       </c>
       <c r="G987" t="s">
         <v>32</v>
@@ -38707,19 +38734,19 @@
         <v>2</v>
       </c>
       <c r="C988" t="s">
-        <v>3919</v>
+        <v>3926</v>
       </c>
       <c r="D988" t="s">
-        <v>3920</v>
+        <v>3927</v>
       </c>
       <c r="E988" t="s">
-        <v>3921</v>
+        <v>3928</v>
       </c>
       <c r="F988" t="s">
-        <v>3922</v>
+        <v>3929</v>
       </c>
       <c r="G988" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.3">
@@ -38730,19 +38757,19 @@
         <v>2</v>
       </c>
       <c r="C989" t="s">
-        <v>3923</v>
+        <v>3930</v>
       </c>
       <c r="D989" t="s">
-        <v>3924</v>
+        <v>3931</v>
       </c>
       <c r="E989" t="s">
-        <v>3925</v>
+        <v>3932</v>
       </c>
       <c r="F989" t="s">
-        <v>3926</v>
+        <v>3933</v>
       </c>
       <c r="G989" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.3">
@@ -38753,19 +38780,19 @@
         <v>2</v>
       </c>
       <c r="C990" t="s">
-        <v>3927</v>
+        <v>3934</v>
       </c>
       <c r="D990" t="s">
-        <v>3928</v>
+        <v>3935</v>
       </c>
       <c r="E990" t="s">
-        <v>3929</v>
+        <v>3936</v>
       </c>
       <c r="F990" t="s">
-        <v>3930</v>
+        <v>3937</v>
       </c>
       <c r="G990" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.3">
@@ -38776,16 +38803,16 @@
         <v>2</v>
       </c>
       <c r="C991" t="s">
-        <v>3931</v>
+        <v>3938</v>
       </c>
       <c r="D991" t="s">
-        <v>3932</v>
+        <v>3939</v>
       </c>
       <c r="E991" t="s">
-        <v>3933</v>
+        <v>3940</v>
       </c>
       <c r="F991" t="s">
-        <v>3934</v>
+        <v>3941</v>
       </c>
       <c r="G991" t="s">
         <v>34</v>
@@ -38799,19 +38826,19 @@
         <v>2</v>
       </c>
       <c r="C992" t="s">
-        <v>3935</v>
+        <v>3942</v>
       </c>
       <c r="D992" t="s">
-        <v>3936</v>
+        <v>3943</v>
       </c>
       <c r="E992" t="s">
-        <v>3937</v>
+        <v>3944</v>
       </c>
       <c r="F992" t="s">
-        <v>3938</v>
+        <v>3945</v>
       </c>
       <c r="G992" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.3">
@@ -38822,19 +38849,19 @@
         <v>2</v>
       </c>
       <c r="C993" t="s">
-        <v>3939</v>
+        <v>3946</v>
       </c>
       <c r="D993" t="s">
-        <v>3940</v>
+        <v>3947</v>
       </c>
       <c r="E993" t="s">
-        <v>3941</v>
+        <v>3948</v>
       </c>
       <c r="F993" t="s">
-        <v>3942</v>
+        <v>3949</v>
       </c>
       <c r="G993" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.3">
@@ -38845,16 +38872,16 @@
         <v>2</v>
       </c>
       <c r="C994" t="s">
-        <v>3943</v>
+        <v>3950</v>
       </c>
       <c r="D994" t="s">
-        <v>3944</v>
+        <v>3951</v>
       </c>
       <c r="E994" t="s">
-        <v>3945</v>
+        <v>3952</v>
       </c>
       <c r="F994" t="s">
-        <v>3946</v>
+        <v>3953</v>
       </c>
       <c r="G994" t="s">
         <v>124</v>
@@ -38868,19 +38895,19 @@
         <v>2</v>
       </c>
       <c r="C995" t="s">
-        <v>3947</v>
+        <v>3954</v>
       </c>
       <c r="D995" t="s">
-        <v>3948</v>
+        <v>3955</v>
       </c>
       <c r="E995" t="s">
-        <v>3949</v>
+        <v>3956</v>
       </c>
       <c r="F995" t="s">
-        <v>3950</v>
+        <v>3957</v>
       </c>
       <c r="G995" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.3">
@@ -38891,19 +38918,19 @@
         <v>2</v>
       </c>
       <c r="C996" t="s">
-        <v>3951</v>
+        <v>3958</v>
       </c>
       <c r="D996" t="s">
-        <v>3952</v>
+        <v>3959</v>
       </c>
       <c r="E996" t="s">
-        <v>3953</v>
+        <v>3960</v>
       </c>
       <c r="F996" t="s">
-        <v>3954</v>
+        <v>3961</v>
       </c>
       <c r="G996" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.3">
@@ -38914,16 +38941,16 @@
         <v>2</v>
       </c>
       <c r="C997" t="s">
-        <v>3955</v>
+        <v>3962</v>
       </c>
       <c r="D997" t="s">
-        <v>3956</v>
+        <v>3963</v>
       </c>
       <c r="E997" t="s">
-        <v>3957</v>
+        <v>3964</v>
       </c>
       <c r="F997" t="s">
-        <v>3958</v>
+        <v>3965</v>
       </c>
       <c r="G997" t="s">
         <v>32</v>
@@ -38937,19 +38964,19 @@
         <v>2</v>
       </c>
       <c r="C998" t="s">
-        <v>3959</v>
+        <v>3966</v>
       </c>
       <c r="D998" t="s">
-        <v>3960</v>
+        <v>3967</v>
       </c>
       <c r="E998" t="s">
-        <v>3961</v>
+        <v>3968</v>
       </c>
       <c r="F998" t="s">
-        <v>3962</v>
+        <v>3969</v>
       </c>
       <c r="G998" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.3">
@@ -38960,19 +38987,19 @@
         <v>2</v>
       </c>
       <c r="C999" t="s">
-        <v>3963</v>
+        <v>3970</v>
       </c>
       <c r="D999" t="s">
-        <v>3964</v>
+        <v>3971</v>
       </c>
       <c r="E999" t="s">
-        <v>3965</v>
+        <v>3972</v>
       </c>
       <c r="F999" t="s">
-        <v>3966</v>
+        <v>3973</v>
       </c>
       <c r="G999" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
@@ -38983,19 +39010,19 @@
         <v>2</v>
       </c>
       <c r="C1000" t="s">
-        <v>3967</v>
+        <v>3974</v>
       </c>
       <c r="D1000" t="s">
-        <v>3968</v>
+        <v>3975</v>
       </c>
       <c r="E1000" t="s">
-        <v>3969</v>
+        <v>3976</v>
       </c>
       <c r="F1000" t="s">
-        <v>3970</v>
+        <v>3977</v>
       </c>
       <c r="G1000" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
@@ -39006,16 +39033,16 @@
         <v>2</v>
       </c>
       <c r="C1001" t="s">
-        <v>3971</v>
+        <v>3978</v>
       </c>
       <c r="D1001" t="s">
-        <v>3972</v>
+        <v>3979</v>
       </c>
       <c r="E1001" t="s">
-        <v>3973</v>
+        <v>3980</v>
       </c>
       <c r="F1001" t="s">
-        <v>3974</v>
+        <v>3981</v>
       </c>
       <c r="G1001" t="s">
         <v>34</v>
@@ -39029,19 +39056,19 @@
         <v>2</v>
       </c>
       <c r="C1002" t="s">
-        <v>3975</v>
+        <v>3982</v>
       </c>
       <c r="D1002" t="s">
-        <v>3976</v>
+        <v>3983</v>
       </c>
       <c r="E1002" t="s">
-        <v>3977</v>
+        <v>3984</v>
       </c>
       <c r="F1002" t="s">
-        <v>3978</v>
+        <v>3985</v>
       </c>
       <c r="G1002" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
@@ -39052,19 +39079,19 @@
         <v>2</v>
       </c>
       <c r="C1003" t="s">
-        <v>3979</v>
+        <v>3986</v>
       </c>
       <c r="D1003" t="s">
-        <v>3980</v>
+        <v>3987</v>
       </c>
       <c r="E1003" t="s">
-        <v>3981</v>
+        <v>3988</v>
       </c>
       <c r="F1003" t="s">
-        <v>3982</v>
+        <v>3989</v>
       </c>
       <c r="G1003" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
@@ -39075,19 +39102,19 @@
         <v>2</v>
       </c>
       <c r="C1004" t="s">
-        <v>3983</v>
+        <v>3990</v>
       </c>
       <c r="D1004" t="s">
-        <v>3984</v>
+        <v>3991</v>
       </c>
       <c r="E1004" t="s">
-        <v>3985</v>
+        <v>3992</v>
       </c>
       <c r="F1004" t="s">
-        <v>3986</v>
+        <v>3993</v>
       </c>
       <c r="G1004" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
@@ -39098,19 +39125,19 @@
         <v>2</v>
       </c>
       <c r="C1005" t="s">
-        <v>3987</v>
+        <v>3994</v>
       </c>
       <c r="D1005" t="s">
-        <v>3988</v>
+        <v>3995</v>
       </c>
       <c r="E1005" t="s">
-        <v>3989</v>
+        <v>3996</v>
       </c>
       <c r="F1005" t="s">
-        <v>3990</v>
+        <v>3997</v>
       </c>
       <c r="G1005" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
@@ -39121,19 +39148,19 @@
         <v>2</v>
       </c>
       <c r="C1006" t="s">
-        <v>3991</v>
+        <v>3998</v>
       </c>
       <c r="D1006" t="s">
-        <v>3992</v>
+        <v>3999</v>
       </c>
       <c r="E1006" t="s">
-        <v>3993</v>
+        <v>4000</v>
       </c>
       <c r="F1006" t="s">
-        <v>3994</v>
+        <v>4001</v>
       </c>
       <c r="G1006" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
@@ -39144,19 +39171,19 @@
         <v>2</v>
       </c>
       <c r="C1007" t="s">
-        <v>3995</v>
+        <v>4002</v>
       </c>
       <c r="D1007" t="s">
-        <v>3996</v>
+        <v>4003</v>
       </c>
       <c r="E1007" t="s">
-        <v>3997</v>
+        <v>4004</v>
       </c>
       <c r="F1007" t="s">
-        <v>3998</v>
+        <v>4005</v>
       </c>
       <c r="G1007" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
@@ -39167,19 +39194,19 @@
         <v>2</v>
       </c>
       <c r="C1008" t="s">
-        <v>3999</v>
+        <v>4006</v>
       </c>
       <c r="D1008" t="s">
-        <v>4000</v>
+        <v>4007</v>
       </c>
       <c r="E1008" t="s">
-        <v>4001</v>
+        <v>4008</v>
       </c>
       <c r="F1008" t="s">
-        <v>4002</v>
+        <v>4009</v>
       </c>
       <c r="G1008" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
@@ -39190,16 +39217,16 @@
         <v>2</v>
       </c>
       <c r="C1009" t="s">
-        <v>4003</v>
+        <v>4010</v>
       </c>
       <c r="D1009" t="s">
-        <v>4004</v>
+        <v>4011</v>
       </c>
       <c r="E1009" t="s">
-        <v>4005</v>
+        <v>4012</v>
       </c>
       <c r="F1009" t="s">
-        <v>4006</v>
+        <v>4013</v>
       </c>
       <c r="G1009" t="s">
         <v>124</v>
@@ -39213,16 +39240,16 @@
         <v>2</v>
       </c>
       <c r="C1010" t="s">
-        <v>4007</v>
+        <v>4014</v>
       </c>
       <c r="D1010" t="s">
-        <v>4008</v>
+        <v>4015</v>
       </c>
       <c r="E1010" t="s">
-        <v>4009</v>
+        <v>4016</v>
       </c>
       <c r="F1010" t="s">
-        <v>4010</v>
+        <v>4017</v>
       </c>
       <c r="G1010" t="s">
         <v>32</v>
@@ -39236,16 +39263,16 @@
         <v>2</v>
       </c>
       <c r="C1011" t="s">
-        <v>4011</v>
+        <v>4018</v>
       </c>
       <c r="D1011" t="s">
-        <v>4012</v>
+        <v>4019</v>
       </c>
       <c r="E1011" t="s">
-        <v>4013</v>
+        <v>4020</v>
       </c>
       <c r="F1011" t="s">
-        <v>4014</v>
+        <v>4021</v>
       </c>
       <c r="G1011" t="s">
         <v>124</v>
@@ -39259,16 +39286,16 @@
         <v>2</v>
       </c>
       <c r="C1012" t="s">
-        <v>4015</v>
+        <v>4022</v>
       </c>
       <c r="D1012" t="s">
-        <v>4016</v>
+        <v>4023</v>
       </c>
       <c r="E1012" t="s">
-        <v>4017</v>
+        <v>4024</v>
       </c>
       <c r="F1012" t="s">
-        <v>4018</v>
+        <v>4025</v>
       </c>
       <c r="G1012" t="s">
         <v>32</v>
@@ -39282,19 +39309,19 @@
         <v>2</v>
       </c>
       <c r="C1013" t="s">
-        <v>4019</v>
+        <v>4026</v>
       </c>
       <c r="D1013" t="s">
-        <v>4020</v>
+        <v>4027</v>
       </c>
       <c r="E1013" t="s">
-        <v>4021</v>
+        <v>4028</v>
       </c>
       <c r="F1013" t="s">
-        <v>4022</v>
+        <v>4029</v>
       </c>
       <c r="G1013" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
@@ -39305,16 +39332,16 @@
         <v>2</v>
       </c>
       <c r="C1014" t="s">
-        <v>4023</v>
+        <v>4030</v>
       </c>
       <c r="D1014" t="s">
-        <v>4024</v>
+        <v>4031</v>
       </c>
       <c r="E1014" t="s">
-        <v>4025</v>
+        <v>4032</v>
       </c>
       <c r="F1014" t="s">
-        <v>4026</v>
+        <v>4033</v>
       </c>
       <c r="G1014" t="s">
         <v>32</v>
@@ -39328,19 +39355,19 @@
         <v>2</v>
       </c>
       <c r="C1015" t="s">
-        <v>4027</v>
+        <v>4034</v>
       </c>
       <c r="D1015" t="s">
-        <v>4028</v>
+        <v>4035</v>
       </c>
       <c r="E1015" t="s">
-        <v>4029</v>
+        <v>4036</v>
       </c>
       <c r="F1015" t="s">
-        <v>4030</v>
+        <v>4037</v>
       </c>
       <c r="G1015" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
@@ -39351,19 +39378,19 @@
         <v>2</v>
       </c>
       <c r="C1016" t="s">
-        <v>4031</v>
+        <v>4038</v>
       </c>
       <c r="D1016" t="s">
-        <v>4032</v>
+        <v>4039</v>
       </c>
       <c r="E1016" t="s">
-        <v>4033</v>
+        <v>4040</v>
       </c>
       <c r="F1016" t="s">
-        <v>4034</v>
+        <v>4041</v>
       </c>
       <c r="G1016" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
@@ -39374,19 +39401,19 @@
         <v>2</v>
       </c>
       <c r="C1017" t="s">
-        <v>4035</v>
+        <v>4042</v>
       </c>
       <c r="D1017" t="s">
-        <v>4036</v>
+        <v>4043</v>
       </c>
       <c r="E1017" t="s">
-        <v>4037</v>
+        <v>4044</v>
       </c>
       <c r="F1017" t="s">
-        <v>4038</v>
+        <v>4045</v>
       </c>
       <c r="G1017" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
@@ -39397,16 +39424,16 @@
         <v>2</v>
       </c>
       <c r="C1018" t="s">
-        <v>4039</v>
+        <v>4046</v>
       </c>
       <c r="D1018" t="s">
-        <v>4040</v>
+        <v>4047</v>
       </c>
       <c r="E1018" t="s">
-        <v>4041</v>
+        <v>4048</v>
       </c>
       <c r="F1018" t="s">
-        <v>4042</v>
+        <v>4049</v>
       </c>
       <c r="G1018" t="s">
         <v>124</v>
@@ -39420,16 +39447,16 @@
         <v>2</v>
       </c>
       <c r="C1019" t="s">
-        <v>4043</v>
+        <v>4050</v>
       </c>
       <c r="D1019" t="s">
-        <v>4044</v>
+        <v>4051</v>
       </c>
       <c r="E1019" t="s">
-        <v>4045</v>
+        <v>4052</v>
       </c>
       <c r="F1019" t="s">
-        <v>4046</v>
+        <v>4053</v>
       </c>
       <c r="G1019" t="s">
         <v>32</v>
@@ -39443,19 +39470,19 @@
         <v>2</v>
       </c>
       <c r="C1020" t="s">
-        <v>4047</v>
+        <v>4054</v>
       </c>
       <c r="D1020" t="s">
-        <v>4048</v>
+        <v>4055</v>
       </c>
       <c r="E1020" t="s">
-        <v>4049</v>
+        <v>4056</v>
       </c>
       <c r="F1020" t="s">
-        <v>4050</v>
+        <v>4057</v>
       </c>
       <c r="G1020" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
@@ -39466,19 +39493,19 @@
         <v>2</v>
       </c>
       <c r="C1021" t="s">
-        <v>4051</v>
+        <v>4058</v>
       </c>
       <c r="D1021" t="s">
-        <v>4052</v>
+        <v>4059</v>
       </c>
       <c r="E1021" t="s">
-        <v>4053</v>
+        <v>4060</v>
       </c>
       <c r="F1021" t="s">
-        <v>4054</v>
+        <v>4061</v>
       </c>
       <c r="G1021" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
@@ -39489,19 +39516,19 @@
         <v>2</v>
       </c>
       <c r="C1022" t="s">
-        <v>4055</v>
+        <v>4062</v>
       </c>
       <c r="D1022" t="s">
-        <v>4056</v>
+        <v>4063</v>
       </c>
       <c r="E1022" t="s">
-        <v>4057</v>
+        <v>4064</v>
       </c>
       <c r="F1022" t="s">
-        <v>4058</v>
+        <v>4065</v>
       </c>
       <c r="G1022" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
@@ -39512,19 +39539,19 @@
         <v>2</v>
       </c>
       <c r="C1023" t="s">
-        <v>4059</v>
+        <v>4066</v>
       </c>
       <c r="D1023" t="s">
-        <v>4060</v>
+        <v>4067</v>
       </c>
       <c r="E1023" t="s">
-        <v>4061</v>
+        <v>4068</v>
       </c>
       <c r="F1023" t="s">
-        <v>4062</v>
+        <v>4069</v>
       </c>
       <c r="G1023" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
@@ -39535,16 +39562,16 @@
         <v>2</v>
       </c>
       <c r="C1024" t="s">
-        <v>4063</v>
+        <v>4070</v>
       </c>
       <c r="D1024" t="s">
-        <v>4064</v>
+        <v>4071</v>
       </c>
       <c r="E1024" t="s">
-        <v>4065</v>
+        <v>4072</v>
       </c>
       <c r="F1024" t="s">
-        <v>4066</v>
+        <v>4073</v>
       </c>
       <c r="G1024" t="s">
         <v>32</v>
@@ -39558,16 +39585,16 @@
         <v>2</v>
       </c>
       <c r="C1025" t="s">
-        <v>4067</v>
+        <v>4074</v>
       </c>
       <c r="D1025" t="s">
-        <v>4068</v>
+        <v>4075</v>
       </c>
       <c r="E1025" t="s">
-        <v>4069</v>
+        <v>4076</v>
       </c>
       <c r="F1025" t="s">
-        <v>4070</v>
+        <v>4077</v>
       </c>
       <c r="G1025" t="s">
         <v>32</v>
@@ -39581,19 +39608,19 @@
         <v>2</v>
       </c>
       <c r="C1026" t="s">
-        <v>4071</v>
+        <v>4078</v>
       </c>
       <c r="D1026" t="s">
-        <v>4072</v>
+        <v>4079</v>
       </c>
       <c r="E1026" t="s">
-        <v>4073</v>
+        <v>4080</v>
       </c>
       <c r="F1026" t="s">
-        <v>4074</v>
+        <v>4081</v>
       </c>
       <c r="G1026" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
@@ -39604,16 +39631,16 @@
         <v>2</v>
       </c>
       <c r="C1027" t="s">
-        <v>4075</v>
+        <v>4082</v>
       </c>
       <c r="D1027" t="s">
-        <v>4076</v>
+        <v>4083</v>
       </c>
       <c r="E1027" t="s">
-        <v>4077</v>
+        <v>4084</v>
       </c>
       <c r="F1027" t="s">
-        <v>4078</v>
+        <v>4085</v>
       </c>
       <c r="G1027" t="s">
         <v>32</v>
@@ -39627,16 +39654,16 @@
         <v>2</v>
       </c>
       <c r="C1028" t="s">
-        <v>4079</v>
+        <v>4086</v>
       </c>
       <c r="D1028" t="s">
-        <v>4080</v>
+        <v>4087</v>
       </c>
       <c r="E1028" t="s">
-        <v>4081</v>
+        <v>4088</v>
       </c>
       <c r="F1028" t="s">
-        <v>4082</v>
+        <v>4089</v>
       </c>
       <c r="G1028" t="s">
         <v>59</v>
@@ -39650,19 +39677,19 @@
         <v>2</v>
       </c>
       <c r="C1029" t="s">
-        <v>4083</v>
+        <v>4090</v>
       </c>
       <c r="D1029" t="s">
-        <v>4084</v>
+        <v>4091</v>
       </c>
       <c r="E1029" t="s">
-        <v>4085</v>
+        <v>4092</v>
       </c>
       <c r="F1029" t="s">
-        <v>4086</v>
+        <v>4093</v>
       </c>
       <c r="G1029" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
@@ -39673,19 +39700,19 @@
         <v>2</v>
       </c>
       <c r="C1030" t="s">
-        <v>4087</v>
+        <v>4094</v>
       </c>
       <c r="D1030" t="s">
-        <v>4088</v>
+        <v>4095</v>
       </c>
       <c r="E1030" t="s">
-        <v>4089</v>
+        <v>4096</v>
       </c>
       <c r="F1030" t="s">
-        <v>4090</v>
+        <v>4097</v>
       </c>
       <c r="G1030" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
@@ -39696,16 +39723,16 @@
         <v>2</v>
       </c>
       <c r="C1031" t="s">
-        <v>4091</v>
+        <v>4098</v>
       </c>
       <c r="D1031" t="s">
-        <v>4092</v>
+        <v>4099</v>
       </c>
       <c r="E1031" t="s">
-        <v>4093</v>
+        <v>4100</v>
       </c>
       <c r="F1031" t="s">
-        <v>4094</v>
+        <v>4101</v>
       </c>
       <c r="G1031" t="s">
         <v>124</v>
@@ -39719,19 +39746,19 @@
         <v>2</v>
       </c>
       <c r="C1032" t="s">
-        <v>4095</v>
+        <v>4102</v>
       </c>
       <c r="D1032" t="s">
-        <v>4096</v>
+        <v>4103</v>
       </c>
       <c r="E1032" t="s">
-        <v>4097</v>
+        <v>4104</v>
       </c>
       <c r="F1032" t="s">
-        <v>4098</v>
+        <v>4105</v>
       </c>
       <c r="G1032" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
@@ -39742,16 +39769,16 @@
         <v>2</v>
       </c>
       <c r="C1033" t="s">
-        <v>4099</v>
+        <v>4106</v>
       </c>
       <c r="D1033" t="s">
-        <v>4100</v>
+        <v>4107</v>
       </c>
       <c r="E1033" t="s">
-        <v>4101</v>
+        <v>4108</v>
       </c>
       <c r="F1033" t="s">
-        <v>4102</v>
+        <v>4109</v>
       </c>
       <c r="G1033" t="s">
         <v>124</v>
@@ -39765,19 +39792,19 @@
         <v>2</v>
       </c>
       <c r="C1034" t="s">
-        <v>4103</v>
+        <v>4110</v>
       </c>
       <c r="D1034" t="s">
-        <v>4104</v>
+        <v>4111</v>
       </c>
       <c r="E1034" t="s">
-        <v>4105</v>
+        <v>4112</v>
       </c>
       <c r="F1034" t="s">
-        <v>4106</v>
+        <v>4113</v>
       </c>
       <c r="G1034" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
@@ -39788,16 +39815,16 @@
         <v>2</v>
       </c>
       <c r="C1035" t="s">
-        <v>4107</v>
+        <v>4114</v>
       </c>
       <c r="D1035" t="s">
-        <v>4108</v>
+        <v>4115</v>
       </c>
       <c r="E1035" t="s">
-        <v>4109</v>
+        <v>4116</v>
       </c>
       <c r="F1035" t="s">
-        <v>4110</v>
+        <v>4117</v>
       </c>
       <c r="G1035" t="s">
         <v>124</v>
@@ -39811,16 +39838,16 @@
         <v>2</v>
       </c>
       <c r="C1036" t="s">
-        <v>4111</v>
+        <v>4118</v>
       </c>
       <c r="D1036" t="s">
-        <v>4112</v>
+        <v>4119</v>
       </c>
       <c r="E1036" t="s">
-        <v>4113</v>
+        <v>4120</v>
       </c>
       <c r="F1036" t="s">
-        <v>4114</v>
+        <v>4121</v>
       </c>
       <c r="G1036" t="s">
         <v>59</v>
@@ -39834,19 +39861,19 @@
         <v>2</v>
       </c>
       <c r="C1037" t="s">
-        <v>4115</v>
+        <v>4122</v>
       </c>
       <c r="D1037" t="s">
-        <v>4116</v>
+        <v>4123</v>
       </c>
       <c r="E1037" t="s">
-        <v>4117</v>
+        <v>4124</v>
       </c>
       <c r="F1037" t="s">
-        <v>4118</v>
+        <v>4125</v>
       </c>
       <c r="G1037" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
@@ -39857,19 +39884,19 @@
         <v>2</v>
       </c>
       <c r="C1038" t="s">
-        <v>4119</v>
+        <v>4126</v>
       </c>
       <c r="D1038" t="s">
-        <v>4120</v>
+        <v>4127</v>
       </c>
       <c r="E1038" t="s">
-        <v>4121</v>
+        <v>4128</v>
       </c>
       <c r="F1038" t="s">
-        <v>4122</v>
+        <v>4129</v>
       </c>
       <c r="G1038" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
@@ -39880,19 +39907,19 @@
         <v>2</v>
       </c>
       <c r="C1039" t="s">
-        <v>4123</v>
+        <v>4130</v>
       </c>
       <c r="D1039" t="s">
-        <v>4124</v>
+        <v>4131</v>
       </c>
       <c r="E1039" t="s">
-        <v>4125</v>
+        <v>4132</v>
       </c>
       <c r="F1039" t="s">
-        <v>4126</v>
+        <v>4133</v>
       </c>
       <c r="G1039" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
@@ -39903,19 +39930,19 @@
         <v>2</v>
       </c>
       <c r="C1040" t="s">
-        <v>4127</v>
+        <v>4134</v>
       </c>
       <c r="D1040" t="s">
-        <v>4128</v>
+        <v>4135</v>
       </c>
       <c r="E1040" t="s">
-        <v>4129</v>
+        <v>4136</v>
       </c>
       <c r="F1040" t="s">
-        <v>4130</v>
+        <v>4137</v>
       </c>
       <c r="G1040" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
@@ -39926,19 +39953,19 @@
         <v>2</v>
       </c>
       <c r="C1041" t="s">
-        <v>4131</v>
+        <v>4138</v>
       </c>
       <c r="D1041" t="s">
-        <v>4132</v>
+        <v>4139</v>
       </c>
       <c r="E1041" t="s">
-        <v>4133</v>
+        <v>4140</v>
       </c>
       <c r="F1041" t="s">
-        <v>4134</v>
+        <v>4141</v>
       </c>
       <c r="G1041" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
@@ -39949,19 +39976,19 @@
         <v>2</v>
       </c>
       <c r="C1042" t="s">
-        <v>4135</v>
+        <v>4142</v>
       </c>
       <c r="D1042" t="s">
-        <v>4136</v>
+        <v>4143</v>
       </c>
       <c r="E1042" t="s">
-        <v>4137</v>
+        <v>4144</v>
       </c>
       <c r="F1042" t="s">
-        <v>4138</v>
+        <v>4145</v>
       </c>
       <c r="G1042" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
@@ -39972,42 +39999,27 @@
         <v>2</v>
       </c>
       <c r="C1043" t="s">
-        <v>4139</v>
+        <v>4146</v>
       </c>
       <c r="D1043" t="s">
-        <v>4140</v>
+        <v>4147</v>
       </c>
       <c r="E1043" t="s">
-        <v>4141</v>
+        <v>4148</v>
       </c>
       <c r="F1043" t="s">
-        <v>4142</v>
+        <v>4149</v>
       </c>
       <c r="G1043" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1044" t="s">
-        <v>49</v>
-      </c>
       <c r="B1044">
-        <v>2</v>
-      </c>
-      <c r="C1044" t="s">
-        <v>4143</v>
+        <v>1</v>
       </c>
       <c r="D1044" t="s">
-        <v>4144</v>
-      </c>
-      <c r="E1044" t="s">
-        <v>4145</v>
-      </c>
-      <c r="F1044" t="s">
-        <v>4146</v>
-      </c>
-      <c r="G1044" t="s">
-        <v>34</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
@@ -40018,27 +40030,42 @@
         <v>2</v>
       </c>
       <c r="C1045" t="s">
-        <v>4147</v>
+        <v>4151</v>
       </c>
       <c r="D1045" t="s">
-        <v>4148</v>
+        <v>4152</v>
       </c>
       <c r="E1045" t="s">
-        <v>4149</v>
+        <v>4153</v>
       </c>
       <c r="F1045" t="s">
-        <v>4150</v>
+        <v>4154</v>
       </c>
       <c r="G1045" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>49</v>
+      </c>
       <c r="B1046">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>4155</v>
       </c>
       <c r="D1046" t="s">
-        <v>4151</v>
+        <v>4156</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>4157</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>4158</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
@@ -40049,16 +40076,16 @@
         <v>2</v>
       </c>
       <c r="C1047" t="s">
-        <v>4152</v>
+        <v>4159</v>
       </c>
       <c r="D1047" t="s">
-        <v>4153</v>
+        <v>4160</v>
       </c>
       <c r="E1047" t="s">
-        <v>4154</v>
+        <v>4161</v>
       </c>
       <c r="F1047" t="s">
-        <v>4155</v>
+        <v>4162</v>
       </c>
       <c r="G1047" t="s">
         <v>59</v>
@@ -40072,19 +40099,19 @@
         <v>2</v>
       </c>
       <c r="C1048" t="s">
-        <v>4156</v>
+        <v>4163</v>
       </c>
       <c r="D1048" t="s">
-        <v>4157</v>
+        <v>4164</v>
       </c>
       <c r="E1048" t="s">
-        <v>4158</v>
+        <v>4165</v>
       </c>
       <c r="F1048" t="s">
-        <v>4159</v>
+        <v>4166</v>
       </c>
       <c r="G1048" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
@@ -40095,16 +40122,16 @@
         <v>2</v>
       </c>
       <c r="C1049" t="s">
-        <v>4160</v>
+        <v>4167</v>
       </c>
       <c r="D1049" t="s">
-        <v>4161</v>
+        <v>4168</v>
       </c>
       <c r="E1049" t="s">
-        <v>4162</v>
+        <v>4169</v>
       </c>
       <c r="F1049" t="s">
-        <v>4163</v>
+        <v>4170</v>
       </c>
       <c r="G1049" t="s">
         <v>59</v>
@@ -40118,19 +40145,19 @@
         <v>2</v>
       </c>
       <c r="C1050" t="s">
-        <v>4164</v>
+        <v>4171</v>
       </c>
       <c r="D1050" t="s">
-        <v>4165</v>
+        <v>4172</v>
       </c>
       <c r="E1050" t="s">
-        <v>4166</v>
+        <v>4173</v>
       </c>
       <c r="F1050" t="s">
-        <v>4167</v>
+        <v>4174</v>
       </c>
       <c r="G1050" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
@@ -40141,19 +40168,19 @@
         <v>2</v>
       </c>
       <c r="C1051" t="s">
-        <v>4168</v>
+        <v>4175</v>
       </c>
       <c r="D1051" t="s">
-        <v>4169</v>
+        <v>4176</v>
       </c>
       <c r="E1051" t="s">
-        <v>4170</v>
+        <v>4177</v>
       </c>
       <c r="F1051" t="s">
-        <v>4171</v>
+        <v>4178</v>
       </c>
       <c r="G1051" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
@@ -40164,19 +40191,19 @@
         <v>2</v>
       </c>
       <c r="C1052" t="s">
-        <v>4172</v>
+        <v>4179</v>
       </c>
       <c r="D1052" t="s">
-        <v>4173</v>
+        <v>4180</v>
       </c>
       <c r="E1052" t="s">
-        <v>4174</v>
+        <v>4181</v>
       </c>
       <c r="F1052" t="s">
-        <v>4175</v>
+        <v>4182</v>
       </c>
       <c r="G1052" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
@@ -40187,16 +40214,16 @@
         <v>2</v>
       </c>
       <c r="C1053" t="s">
-        <v>4176</v>
+        <v>4183</v>
       </c>
       <c r="D1053" t="s">
-        <v>4177</v>
+        <v>4184</v>
       </c>
       <c r="E1053" t="s">
-        <v>4178</v>
+        <v>4185</v>
       </c>
       <c r="F1053" t="s">
-        <v>4179</v>
+        <v>4186</v>
       </c>
       <c r="G1053" t="s">
         <v>54</v>
@@ -40210,42 +40237,27 @@
         <v>2</v>
       </c>
       <c r="C1054" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="D1054" t="s">
-        <v>4181</v>
+        <v>4188</v>
       </c>
       <c r="E1054" t="s">
-        <v>4182</v>
+        <v>4189</v>
       </c>
       <c r="F1054" t="s">
-        <v>4183</v>
+        <v>4190</v>
       </c>
       <c r="G1054" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1055" t="s">
-        <v>49</v>
-      </c>
       <c r="B1055">
-        <v>2</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>4184</v>
+        <v>1</v>
       </c>
       <c r="D1055" t="s">
-        <v>4185</v>
-      </c>
-      <c r="E1055" t="s">
-        <v>4186</v>
-      </c>
-      <c r="F1055" t="s">
-        <v>4187</v>
-      </c>
-      <c r="G1055" t="s">
-        <v>54</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
@@ -40256,27 +40268,42 @@
         <v>2</v>
       </c>
       <c r="C1056" t="s">
-        <v>4188</v>
+        <v>4192</v>
       </c>
       <c r="D1056" t="s">
-        <v>4189</v>
+        <v>4193</v>
       </c>
       <c r="E1056" t="s">
-        <v>4190</v>
+        <v>4194</v>
       </c>
       <c r="F1056" t="s">
-        <v>4191</v>
+        <v>4195</v>
       </c>
       <c r="G1056" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1057">
+        <v>2</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>4196</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>4197</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>4198</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>4199</v>
+      </c>
+      <c r="G1057" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1057">
-        <v>1</v>
-      </c>
-      <c r="D1057" t="s">
-        <v>4192</v>
       </c>
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
@@ -40287,19 +40314,19 @@
         <v>2</v>
       </c>
       <c r="C1058" t="s">
-        <v>4193</v>
+        <v>4200</v>
       </c>
       <c r="D1058" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="E1058" t="s">
-        <v>4195</v>
+        <v>4202</v>
       </c>
       <c r="F1058" t="s">
-        <v>4196</v>
+        <v>4203</v>
       </c>
       <c r="G1058" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
@@ -40310,19 +40337,19 @@
         <v>2</v>
       </c>
       <c r="C1059" t="s">
-        <v>4197</v>
+        <v>4204</v>
       </c>
       <c r="D1059" t="s">
-        <v>4198</v>
+        <v>4205</v>
       </c>
       <c r="E1059" t="s">
-        <v>4199</v>
+        <v>4206</v>
       </c>
       <c r="F1059" t="s">
-        <v>4200</v>
+        <v>4207</v>
       </c>
       <c r="G1059" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
@@ -40333,19 +40360,19 @@
         <v>2</v>
       </c>
       <c r="C1060" t="s">
-        <v>4201</v>
+        <v>4208</v>
       </c>
       <c r="D1060" t="s">
-        <v>4202</v>
+        <v>4209</v>
       </c>
       <c r="E1060" t="s">
-        <v>4203</v>
+        <v>4210</v>
       </c>
       <c r="F1060" t="s">
-        <v>4204</v>
+        <v>4211</v>
       </c>
       <c r="G1060" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
@@ -40356,16 +40383,16 @@
         <v>2</v>
       </c>
       <c r="C1061" t="s">
-        <v>4205</v>
+        <v>4212</v>
       </c>
       <c r="D1061" t="s">
-        <v>4206</v>
+        <v>4213</v>
       </c>
       <c r="E1061" t="s">
-        <v>4207</v>
+        <v>4214</v>
       </c>
       <c r="F1061" t="s">
-        <v>4208</v>
+        <v>4215</v>
       </c>
       <c r="G1061" t="s">
         <v>54</v>
@@ -40379,16 +40406,16 @@
         <v>2</v>
       </c>
       <c r="C1062" t="s">
-        <v>4209</v>
+        <v>4216</v>
       </c>
       <c r="D1062" t="s">
-        <v>4210</v>
+        <v>4217</v>
       </c>
       <c r="E1062" t="s">
-        <v>4211</v>
+        <v>4218</v>
       </c>
       <c r="F1062" t="s">
-        <v>4212</v>
+        <v>4219</v>
       </c>
       <c r="G1062" t="s">
         <v>54</v>
@@ -40402,19 +40429,19 @@
         <v>2</v>
       </c>
       <c r="C1063" t="s">
-        <v>4213</v>
+        <v>4220</v>
       </c>
       <c r="D1063" t="s">
-        <v>4214</v>
+        <v>4221</v>
       </c>
       <c r="E1063" t="s">
-        <v>4215</v>
+        <v>4222</v>
       </c>
       <c r="F1063" t="s">
-        <v>4216</v>
+        <v>4223</v>
       </c>
       <c r="G1063" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
@@ -40425,19 +40452,19 @@
         <v>2</v>
       </c>
       <c r="C1064" t="s">
-        <v>4217</v>
+        <v>4224</v>
       </c>
       <c r="D1064" t="s">
-        <v>4218</v>
+        <v>4225</v>
       </c>
       <c r="E1064" t="s">
-        <v>4219</v>
+        <v>4226</v>
       </c>
       <c r="F1064" t="s">
-        <v>4220</v>
+        <v>4227</v>
       </c>
       <c r="G1064" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
@@ -40448,19 +40475,19 @@
         <v>2</v>
       </c>
       <c r="C1065" t="s">
-        <v>4221</v>
+        <v>4228</v>
       </c>
       <c r="D1065" t="s">
-        <v>4222</v>
+        <v>4229</v>
       </c>
       <c r="E1065" t="s">
-        <v>4223</v>
+        <v>4230</v>
       </c>
       <c r="F1065" t="s">
-        <v>4224</v>
+        <v>4231</v>
       </c>
       <c r="G1065" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
@@ -40471,19 +40498,19 @@
         <v>2</v>
       </c>
       <c r="C1066" t="s">
-        <v>4225</v>
+        <v>4232</v>
       </c>
       <c r="D1066" t="s">
-        <v>4226</v>
+        <v>4233</v>
       </c>
       <c r="E1066" t="s">
-        <v>4227</v>
+        <v>4234</v>
       </c>
       <c r="F1066" t="s">
-        <v>4228</v>
+        <v>4235</v>
       </c>
       <c r="G1066" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
@@ -40494,19 +40521,19 @@
         <v>2</v>
       </c>
       <c r="C1067" t="s">
-        <v>4229</v>
+        <v>4236</v>
       </c>
       <c r="D1067" t="s">
-        <v>4230</v>
+        <v>4237</v>
       </c>
       <c r="E1067" t="s">
-        <v>4231</v>
+        <v>4238</v>
       </c>
       <c r="F1067" t="s">
-        <v>4232</v>
+        <v>4239</v>
       </c>
       <c r="G1067" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
@@ -40517,19 +40544,19 @@
         <v>2</v>
       </c>
       <c r="C1068" t="s">
-        <v>4233</v>
+        <v>4240</v>
       </c>
       <c r="D1068" t="s">
-        <v>4234</v>
+        <v>4241</v>
       </c>
       <c r="E1068" t="s">
-        <v>4235</v>
+        <v>4242</v>
       </c>
       <c r="F1068" t="s">
-        <v>4236</v>
+        <v>4243</v>
       </c>
       <c r="G1068" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
@@ -40540,19 +40567,19 @@
         <v>2</v>
       </c>
       <c r="C1069" t="s">
-        <v>4237</v>
+        <v>4244</v>
       </c>
       <c r="D1069" t="s">
-        <v>4238</v>
+        <v>4245</v>
       </c>
       <c r="E1069" t="s">
-        <v>4239</v>
+        <v>4246</v>
       </c>
       <c r="F1069" t="s">
-        <v>4240</v>
+        <v>4247</v>
       </c>
       <c r="G1069" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
@@ -40563,19 +40590,19 @@
         <v>2</v>
       </c>
       <c r="C1070" t="s">
-        <v>4241</v>
+        <v>4248</v>
       </c>
       <c r="D1070" t="s">
-        <v>4242</v>
+        <v>4249</v>
       </c>
       <c r="E1070" t="s">
-        <v>4243</v>
+        <v>4250</v>
       </c>
       <c r="F1070" t="s">
-        <v>4244</v>
+        <v>4251</v>
       </c>
       <c r="G1070" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
@@ -40586,19 +40613,19 @@
         <v>2</v>
       </c>
       <c r="C1071" t="s">
-        <v>4245</v>
+        <v>4252</v>
       </c>
       <c r="D1071" t="s">
-        <v>4246</v>
+        <v>4253</v>
       </c>
       <c r="E1071" t="s">
-        <v>4247</v>
+        <v>4254</v>
       </c>
       <c r="F1071" t="s">
-        <v>4248</v>
+        <v>4255</v>
       </c>
       <c r="G1071" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
@@ -40609,19 +40636,19 @@
         <v>2</v>
       </c>
       <c r="C1072" t="s">
-        <v>4249</v>
+        <v>4256</v>
       </c>
       <c r="D1072" t="s">
-        <v>4250</v>
+        <v>4257</v>
       </c>
       <c r="E1072" t="s">
-        <v>4251</v>
+        <v>4258</v>
       </c>
       <c r="F1072" t="s">
-        <v>4252</v>
+        <v>4259</v>
       </c>
       <c r="G1072" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
@@ -40632,19 +40659,19 @@
         <v>2</v>
       </c>
       <c r="C1073" t="s">
-        <v>4253</v>
+        <v>4260</v>
       </c>
       <c r="D1073" t="s">
-        <v>4254</v>
+        <v>4261</v>
       </c>
       <c r="E1073" t="s">
-        <v>4255</v>
+        <v>4262</v>
       </c>
       <c r="F1073" t="s">
-        <v>4256</v>
+        <v>4263</v>
       </c>
       <c r="G1073" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
@@ -40655,19 +40682,19 @@
         <v>2</v>
       </c>
       <c r="C1074" t="s">
-        <v>4257</v>
+        <v>4264</v>
       </c>
       <c r="D1074" t="s">
-        <v>4258</v>
+        <v>4265</v>
       </c>
       <c r="E1074" t="s">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="F1074" t="s">
-        <v>4260</v>
+        <v>4267</v>
       </c>
       <c r="G1074" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
@@ -40678,19 +40705,19 @@
         <v>2</v>
       </c>
       <c r="C1075" t="s">
-        <v>4261</v>
+        <v>4268</v>
       </c>
       <c r="D1075" t="s">
-        <v>4262</v>
+        <v>4269</v>
       </c>
       <c r="E1075" t="s">
-        <v>4263</v>
+        <v>4270</v>
       </c>
       <c r="F1075" t="s">
-        <v>4264</v>
+        <v>4271</v>
       </c>
       <c r="G1075" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
@@ -40701,19 +40728,19 @@
         <v>2</v>
       </c>
       <c r="C1076" t="s">
-        <v>4265</v>
+        <v>4272</v>
       </c>
       <c r="D1076" t="s">
-        <v>4266</v>
+        <v>4273</v>
       </c>
       <c r="E1076" t="s">
-        <v>4267</v>
+        <v>4274</v>
       </c>
       <c r="F1076" t="s">
-        <v>4268</v>
+        <v>4275</v>
       </c>
       <c r="G1076" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
@@ -40724,19 +40751,19 @@
         <v>2</v>
       </c>
       <c r="C1077" t="s">
-        <v>4269</v>
+        <v>4276</v>
       </c>
       <c r="D1077" t="s">
-        <v>4270</v>
+        <v>4277</v>
       </c>
       <c r="E1077" t="s">
-        <v>4271</v>
+        <v>4278</v>
       </c>
       <c r="F1077" t="s">
-        <v>4272</v>
+        <v>4279</v>
       </c>
       <c r="G1077" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
@@ -40747,19 +40774,19 @@
         <v>2</v>
       </c>
       <c r="C1078" t="s">
-        <v>4273</v>
+        <v>4280</v>
       </c>
       <c r="D1078" t="s">
-        <v>4274</v>
+        <v>4281</v>
       </c>
       <c r="E1078" t="s">
-        <v>4275</v>
+        <v>4282</v>
       </c>
       <c r="F1078" t="s">
-        <v>4276</v>
+        <v>4283</v>
       </c>
       <c r="G1078" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
@@ -40770,42 +40797,27 @@
         <v>2</v>
       </c>
       <c r="C1079" t="s">
-        <v>4277</v>
+        <v>4284</v>
       </c>
       <c r="D1079" t="s">
-        <v>4278</v>
+        <v>4285</v>
       </c>
       <c r="E1079" t="s">
-        <v>4279</v>
+        <v>4286</v>
       </c>
       <c r="F1079" t="s">
-        <v>4280</v>
+        <v>4287</v>
       </c>
       <c r="G1079" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1080" t="s">
-        <v>49</v>
-      </c>
       <c r="B1080">
-        <v>2</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>4281</v>
+        <v>1</v>
       </c>
       <c r="D1080" t="s">
-        <v>4282</v>
-      </c>
-      <c r="E1080" t="s">
-        <v>4283</v>
-      </c>
-      <c r="F1080" t="s">
-        <v>4284</v>
-      </c>
-      <c r="G1080" t="s">
-        <v>32</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
@@ -40816,27 +40828,42 @@
         <v>2</v>
       </c>
       <c r="C1081" t="s">
-        <v>4285</v>
+        <v>4289</v>
       </c>
       <c r="D1081" t="s">
-        <v>4286</v>
+        <v>4290</v>
       </c>
       <c r="E1081" t="s">
-        <v>4287</v>
+        <v>4291</v>
       </c>
       <c r="F1081" t="s">
-        <v>4288</v>
+        <v>4292</v>
       </c>
       <c r="G1081" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>49</v>
+      </c>
       <c r="B1082">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>4293</v>
       </c>
       <c r="D1082" t="s">
-        <v>4289</v>
+        <v>4294</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>4295</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>4296</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
@@ -40847,19 +40874,19 @@
         <v>2</v>
       </c>
       <c r="C1083" t="s">
-        <v>4290</v>
+        <v>4297</v>
       </c>
       <c r="D1083" t="s">
-        <v>4291</v>
+        <v>4298</v>
       </c>
       <c r="E1083" t="s">
-        <v>4292</v>
+        <v>4299</v>
       </c>
       <c r="F1083" t="s">
-        <v>4293</v>
+        <v>4300</v>
       </c>
       <c r="G1083" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
@@ -40870,19 +40897,19 @@
         <v>2</v>
       </c>
       <c r="C1084" t="s">
-        <v>4294</v>
+        <v>4301</v>
       </c>
       <c r="D1084" t="s">
-        <v>4295</v>
+        <v>4302</v>
       </c>
       <c r="E1084" t="s">
-        <v>4296</v>
+        <v>4303</v>
       </c>
       <c r="F1084" t="s">
-        <v>4297</v>
+        <v>4304</v>
       </c>
       <c r="G1084" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
@@ -40893,19 +40920,19 @@
         <v>2</v>
       </c>
       <c r="C1085" t="s">
-        <v>4298</v>
+        <v>4305</v>
       </c>
       <c r="D1085" t="s">
-        <v>4299</v>
+        <v>4306</v>
       </c>
       <c r="E1085" t="s">
-        <v>4300</v>
+        <v>4307</v>
       </c>
       <c r="F1085" t="s">
-        <v>4301</v>
+        <v>4308</v>
       </c>
       <c r="G1085" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
@@ -40916,19 +40943,19 @@
         <v>2</v>
       </c>
       <c r="C1086" t="s">
-        <v>4302</v>
+        <v>4309</v>
       </c>
       <c r="D1086" t="s">
-        <v>4303</v>
+        <v>4310</v>
       </c>
       <c r="E1086" t="s">
-        <v>4304</v>
+        <v>4311</v>
       </c>
       <c r="F1086" t="s">
-        <v>4305</v>
+        <v>4312</v>
       </c>
       <c r="G1086" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
@@ -40939,19 +40966,19 @@
         <v>2</v>
       </c>
       <c r="C1087" t="s">
-        <v>4306</v>
+        <v>4313</v>
       </c>
       <c r="D1087" t="s">
-        <v>4307</v>
+        <v>4314</v>
       </c>
       <c r="E1087" t="s">
-        <v>4308</v>
+        <v>4315</v>
       </c>
       <c r="F1087" t="s">
-        <v>4309</v>
+        <v>4316</v>
       </c>
       <c r="G1087" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.3">
@@ -40962,19 +40989,19 @@
         <v>2</v>
       </c>
       <c r="C1088" t="s">
-        <v>4310</v>
+        <v>4317</v>
       </c>
       <c r="D1088" t="s">
-        <v>4311</v>
+        <v>4318</v>
       </c>
       <c r="E1088" t="s">
-        <v>4312</v>
+        <v>4319</v>
       </c>
       <c r="F1088" t="s">
-        <v>4313</v>
+        <v>4320</v>
       </c>
       <c r="G1088" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
@@ -40985,19 +41012,19 @@
         <v>2</v>
       </c>
       <c r="C1089" t="s">
-        <v>4314</v>
+        <v>4321</v>
       </c>
       <c r="D1089" t="s">
-        <v>4315</v>
+        <v>4322</v>
       </c>
       <c r="E1089" t="s">
-        <v>4316</v>
+        <v>4323</v>
       </c>
       <c r="F1089" t="s">
-        <v>4317</v>
+        <v>4324</v>
       </c>
       <c r="G1089" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.3">
@@ -41008,19 +41035,19 @@
         <v>2</v>
       </c>
       <c r="C1090" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
       <c r="D1090" t="s">
-        <v>4319</v>
+        <v>4326</v>
       </c>
       <c r="E1090" t="s">
-        <v>4320</v>
+        <v>4327</v>
       </c>
       <c r="F1090" t="s">
-        <v>4321</v>
+        <v>4328</v>
       </c>
       <c r="G1090" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
@@ -41031,16 +41058,16 @@
         <v>2</v>
       </c>
       <c r="C1091" t="s">
-        <v>4322</v>
+        <v>4329</v>
       </c>
       <c r="D1091" t="s">
-        <v>4323</v>
+        <v>4330</v>
       </c>
       <c r="E1091" t="s">
-        <v>4324</v>
+        <v>4331</v>
       </c>
       <c r="F1091" t="s">
-        <v>4325</v>
+        <v>4332</v>
       </c>
       <c r="G1091" t="s">
         <v>34</v>
@@ -41054,16 +41081,16 @@
         <v>2</v>
       </c>
       <c r="C1092" t="s">
-        <v>4326</v>
+        <v>4333</v>
       </c>
       <c r="D1092" t="s">
-        <v>4327</v>
+        <v>4334</v>
       </c>
       <c r="E1092" t="s">
-        <v>4328</v>
+        <v>4335</v>
       </c>
       <c r="F1092" t="s">
-        <v>4329</v>
+        <v>4336</v>
       </c>
       <c r="G1092" t="s">
         <v>34</v>
@@ -41077,16 +41104,16 @@
         <v>2</v>
       </c>
       <c r="C1093" t="s">
-        <v>4330</v>
+        <v>4337</v>
       </c>
       <c r="D1093" t="s">
-        <v>4331</v>
+        <v>4338</v>
       </c>
       <c r="E1093" t="s">
-        <v>4332</v>
+        <v>4339</v>
       </c>
       <c r="F1093" t="s">
-        <v>4333</v>
+        <v>4340</v>
       </c>
       <c r="G1093" t="s">
         <v>34</v>
@@ -41100,16 +41127,16 @@
         <v>2</v>
       </c>
       <c r="C1094" t="s">
-        <v>4334</v>
+        <v>4341</v>
       </c>
       <c r="D1094" t="s">
-        <v>4335</v>
+        <v>4342</v>
       </c>
       <c r="E1094" t="s">
-        <v>4336</v>
+        <v>4343</v>
       </c>
       <c r="F1094" t="s">
-        <v>4337</v>
+        <v>4344</v>
       </c>
       <c r="G1094" t="s">
         <v>34</v>
@@ -41123,19 +41150,19 @@
         <v>2</v>
       </c>
       <c r="C1095" t="s">
-        <v>4338</v>
+        <v>4345</v>
       </c>
       <c r="D1095" t="s">
-        <v>4339</v>
+        <v>4346</v>
       </c>
       <c r="E1095" t="s">
-        <v>4340</v>
+        <v>4347</v>
       </c>
       <c r="F1095" t="s">
-        <v>4341</v>
+        <v>4348</v>
       </c>
       <c r="G1095" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
@@ -41146,19 +41173,19 @@
         <v>2</v>
       </c>
       <c r="C1096" t="s">
-        <v>4342</v>
+        <v>4349</v>
       </c>
       <c r="D1096" t="s">
-        <v>4343</v>
+        <v>4350</v>
       </c>
       <c r="E1096" t="s">
-        <v>4344</v>
+        <v>4351</v>
       </c>
       <c r="F1096" t="s">
-        <v>4345</v>
+        <v>4352</v>
       </c>
       <c r="G1096" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
@@ -41169,19 +41196,19 @@
         <v>2</v>
       </c>
       <c r="C1097" t="s">
-        <v>4346</v>
+        <v>4353</v>
       </c>
       <c r="D1097" t="s">
-        <v>4347</v>
+        <v>4354</v>
       </c>
       <c r="E1097" t="s">
-        <v>4348</v>
+        <v>4355</v>
       </c>
       <c r="F1097" t="s">
-        <v>4349</v>
+        <v>4356</v>
       </c>
       <c r="G1097" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
@@ -41192,16 +41219,16 @@
         <v>2</v>
       </c>
       <c r="C1098" t="s">
-        <v>4350</v>
+        <v>4357</v>
       </c>
       <c r="D1098" t="s">
-        <v>4351</v>
+        <v>4358</v>
       </c>
       <c r="E1098" t="s">
-        <v>4352</v>
+        <v>4359</v>
       </c>
       <c r="F1098" t="s">
-        <v>4353</v>
+        <v>4360</v>
       </c>
       <c r="G1098" t="s">
         <v>124</v>
@@ -41215,19 +41242,19 @@
         <v>2</v>
       </c>
       <c r="C1099" t="s">
-        <v>4354</v>
+        <v>4361</v>
       </c>
       <c r="D1099" t="s">
-        <v>4355</v>
+        <v>4362</v>
       </c>
       <c r="E1099" t="s">
-        <v>4356</v>
+        <v>4363</v>
       </c>
       <c r="F1099" t="s">
-        <v>4357</v>
+        <v>4364</v>
       </c>
       <c r="G1099" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
@@ -41238,16 +41265,16 @@
         <v>2</v>
       </c>
       <c r="C1100" t="s">
-        <v>4358</v>
+        <v>4365</v>
       </c>
       <c r="D1100" t="s">
-        <v>4359</v>
+        <v>4366</v>
       </c>
       <c r="E1100" t="s">
-        <v>4360</v>
+        <v>4367</v>
       </c>
       <c r="F1100" t="s">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="G1100" t="s">
         <v>124</v>
@@ -41261,19 +41288,19 @@
         <v>2</v>
       </c>
       <c r="C1101" t="s">
-        <v>4362</v>
+        <v>4369</v>
       </c>
       <c r="D1101" t="s">
-        <v>4363</v>
+        <v>4370</v>
       </c>
       <c r="E1101" t="s">
-        <v>4364</v>
+        <v>4371</v>
       </c>
       <c r="F1101" t="s">
-        <v>4365</v>
+        <v>4372</v>
       </c>
       <c r="G1101" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
@@ -41284,19 +41311,19 @@
         <v>2</v>
       </c>
       <c r="C1102" t="s">
-        <v>4366</v>
+        <v>4373</v>
       </c>
       <c r="D1102" t="s">
-        <v>4367</v>
+        <v>4374</v>
       </c>
       <c r="E1102" t="s">
-        <v>4368</v>
+        <v>4375</v>
       </c>
       <c r="F1102" t="s">
-        <v>4369</v>
+        <v>4376</v>
       </c>
       <c r="G1102" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
@@ -41307,16 +41334,16 @@
         <v>2</v>
       </c>
       <c r="C1103" t="s">
-        <v>4370</v>
+        <v>4377</v>
       </c>
       <c r="D1103" t="s">
-        <v>4371</v>
+        <v>4378</v>
       </c>
       <c r="E1103" t="s">
-        <v>4372</v>
+        <v>4379</v>
       </c>
       <c r="F1103" t="s">
-        <v>4373</v>
+        <v>4380</v>
       </c>
       <c r="G1103" t="s">
         <v>124</v>
@@ -41330,16 +41357,16 @@
         <v>2</v>
       </c>
       <c r="C1104" t="s">
-        <v>4374</v>
+        <v>4381</v>
       </c>
       <c r="D1104" t="s">
-        <v>4375</v>
+        <v>4382</v>
       </c>
       <c r="E1104" t="s">
-        <v>4376</v>
+        <v>4383</v>
       </c>
       <c r="F1104" t="s">
-        <v>4377</v>
+        <v>4384</v>
       </c>
       <c r="G1104" t="s">
         <v>34</v>
@@ -41353,16 +41380,16 @@
         <v>2</v>
       </c>
       <c r="C1105" t="s">
-        <v>4378</v>
+        <v>4385</v>
       </c>
       <c r="D1105" t="s">
-        <v>4379</v>
+        <v>4386</v>
       </c>
       <c r="E1105" t="s">
-        <v>4380</v>
+        <v>4387</v>
       </c>
       <c r="F1105" t="s">
-        <v>4381</v>
+        <v>4388</v>
       </c>
       <c r="G1105" t="s">
         <v>124</v>
@@ -41376,16 +41403,16 @@
         <v>2</v>
       </c>
       <c r="C1106" t="s">
-        <v>4382</v>
+        <v>4389</v>
       </c>
       <c r="D1106" t="s">
-        <v>4383</v>
+        <v>4390</v>
       </c>
       <c r="E1106" t="s">
-        <v>4384</v>
+        <v>4391</v>
       </c>
       <c r="F1106" t="s">
-        <v>4385</v>
+        <v>4392</v>
       </c>
       <c r="G1106" t="s">
         <v>34</v>
@@ -41399,16 +41426,16 @@
         <v>2</v>
       </c>
       <c r="C1107" t="s">
-        <v>4386</v>
+        <v>4393</v>
       </c>
       <c r="D1107" t="s">
-        <v>4387</v>
+        <v>4394</v>
       </c>
       <c r="E1107" t="s">
-        <v>4388</v>
+        <v>4395</v>
       </c>
       <c r="F1107" t="s">
-        <v>4389</v>
+        <v>4396</v>
       </c>
       <c r="G1107" t="s">
         <v>124</v>
@@ -41422,19 +41449,19 @@
         <v>2</v>
       </c>
       <c r="C1108" t="s">
-        <v>4390</v>
+        <v>4397</v>
       </c>
       <c r="D1108" t="s">
-        <v>4391</v>
+        <v>4398</v>
       </c>
       <c r="E1108" t="s">
-        <v>4392</v>
+        <v>4399</v>
       </c>
       <c r="F1108" t="s">
-        <v>4393</v>
+        <v>4400</v>
       </c>
       <c r="G1108" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
@@ -41445,16 +41472,16 @@
         <v>2</v>
       </c>
       <c r="C1109" t="s">
-        <v>4394</v>
+        <v>4401</v>
       </c>
       <c r="D1109" t="s">
-        <v>4395</v>
+        <v>4402</v>
       </c>
       <c r="E1109" t="s">
-        <v>4396</v>
+        <v>4403</v>
       </c>
       <c r="F1109" t="s">
-        <v>4397</v>
+        <v>4404</v>
       </c>
       <c r="G1109" t="s">
         <v>124</v>
@@ -41468,16 +41495,16 @@
         <v>2</v>
       </c>
       <c r="C1110" t="s">
-        <v>4398</v>
+        <v>4405</v>
       </c>
       <c r="D1110" t="s">
-        <v>4399</v>
+        <v>4406</v>
       </c>
       <c r="E1110" t="s">
-        <v>4400</v>
+        <v>4407</v>
       </c>
       <c r="F1110" t="s">
-        <v>4401</v>
+        <v>4408</v>
       </c>
       <c r="G1110" t="s">
         <v>124</v>
@@ -41491,16 +41518,16 @@
         <v>2</v>
       </c>
       <c r="C1111" t="s">
-        <v>4402</v>
+        <v>4409</v>
       </c>
       <c r="D1111" t="s">
-        <v>4403</v>
+        <v>4410</v>
       </c>
       <c r="E1111" t="s">
-        <v>4404</v>
+        <v>4411</v>
       </c>
       <c r="F1111" t="s">
-        <v>4405</v>
+        <v>4412</v>
       </c>
       <c r="G1111" t="s">
         <v>124</v>
@@ -41514,16 +41541,16 @@
         <v>2</v>
       </c>
       <c r="C1112" t="s">
-        <v>4406</v>
+        <v>4413</v>
       </c>
       <c r="D1112" t="s">
-        <v>4407</v>
+        <v>4414</v>
       </c>
       <c r="E1112" t="s">
-        <v>4408</v>
+        <v>4415</v>
       </c>
       <c r="F1112" t="s">
-        <v>4409</v>
+        <v>4416</v>
       </c>
       <c r="G1112" t="s">
         <v>124</v>
@@ -41537,16 +41564,16 @@
         <v>2</v>
       </c>
       <c r="C1113" t="s">
-        <v>4410</v>
+        <v>4417</v>
       </c>
       <c r="D1113" t="s">
-        <v>4411</v>
+        <v>4418</v>
       </c>
       <c r="E1113" t="s">
-        <v>4412</v>
+        <v>4419</v>
       </c>
       <c r="F1113" t="s">
-        <v>4413</v>
+        <v>4420</v>
       </c>
       <c r="G1113" t="s">
         <v>124</v>
@@ -41560,16 +41587,16 @@
         <v>2</v>
       </c>
       <c r="C1114" t="s">
-        <v>4414</v>
+        <v>4421</v>
       </c>
       <c r="D1114" t="s">
-        <v>4415</v>
+        <v>4422</v>
       </c>
       <c r="E1114" t="s">
-        <v>4416</v>
+        <v>4423</v>
       </c>
       <c r="F1114" t="s">
-        <v>4417</v>
+        <v>4424</v>
       </c>
       <c r="G1114" t="s">
         <v>124</v>
@@ -41583,19 +41610,19 @@
         <v>2</v>
       </c>
       <c r="C1115" t="s">
-        <v>4418</v>
+        <v>4425</v>
       </c>
       <c r="D1115" t="s">
-        <v>4419</v>
+        <v>4426</v>
       </c>
       <c r="E1115" t="s">
-        <v>4420</v>
+        <v>4427</v>
       </c>
       <c r="F1115" t="s">
-        <v>4421</v>
+        <v>4428</v>
       </c>
       <c r="G1115" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
@@ -41606,16 +41633,16 @@
         <v>2</v>
       </c>
       <c r="C1116" t="s">
-        <v>4422</v>
+        <v>4429</v>
       </c>
       <c r="D1116" t="s">
-        <v>4423</v>
+        <v>4430</v>
       </c>
       <c r="E1116" t="s">
-        <v>4424</v>
+        <v>4431</v>
       </c>
       <c r="F1116" t="s">
-        <v>4425</v>
+        <v>4432</v>
       </c>
       <c r="G1116" t="s">
         <v>124</v>
@@ -41629,19 +41656,19 @@
         <v>2</v>
       </c>
       <c r="C1117" t="s">
-        <v>4426</v>
+        <v>4433</v>
       </c>
       <c r="D1117" t="s">
-        <v>4427</v>
+        <v>4434</v>
       </c>
       <c r="E1117" t="s">
-        <v>4428</v>
+        <v>4435</v>
       </c>
       <c r="F1117" t="s">
-        <v>4429</v>
+        <v>4436</v>
       </c>
       <c r="G1117" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
@@ -41652,16 +41679,16 @@
         <v>2</v>
       </c>
       <c r="C1118" t="s">
-        <v>4430</v>
+        <v>4437</v>
       </c>
       <c r="D1118" t="s">
-        <v>4431</v>
+        <v>4438</v>
       </c>
       <c r="E1118" t="s">
-        <v>4432</v>
+        <v>4439</v>
       </c>
       <c r="F1118" t="s">
-        <v>4433</v>
+        <v>4440</v>
       </c>
       <c r="G1118" t="s">
         <v>124</v>
@@ -41675,16 +41702,16 @@
         <v>2</v>
       </c>
       <c r="C1119" t="s">
-        <v>4434</v>
+        <v>4441</v>
       </c>
       <c r="D1119" t="s">
-        <v>4435</v>
+        <v>4442</v>
       </c>
       <c r="E1119" t="s">
-        <v>4436</v>
+        <v>4443</v>
       </c>
       <c r="F1119" t="s">
-        <v>4437</v>
+        <v>4444</v>
       </c>
       <c r="G1119" t="s">
         <v>124</v>
@@ -41698,19 +41725,19 @@
         <v>2</v>
       </c>
       <c r="C1120" t="s">
-        <v>4438</v>
+        <v>4445</v>
       </c>
       <c r="D1120" t="s">
-        <v>4439</v>
+        <v>4446</v>
       </c>
       <c r="E1120" t="s">
-        <v>4440</v>
+        <v>4447</v>
       </c>
       <c r="F1120" t="s">
-        <v>4441</v>
+        <v>4448</v>
       </c>
       <c r="G1120" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
@@ -41721,19 +41748,19 @@
         <v>2</v>
       </c>
       <c r="C1121" t="s">
-        <v>4442</v>
+        <v>4449</v>
       </c>
       <c r="D1121" t="s">
-        <v>4443</v>
+        <v>4450</v>
       </c>
       <c r="E1121" t="s">
-        <v>4444</v>
+        <v>4451</v>
       </c>
       <c r="F1121" t="s">
-        <v>4445</v>
+        <v>4452</v>
       </c>
       <c r="G1121" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
@@ -41744,42 +41771,27 @@
         <v>2</v>
       </c>
       <c r="C1122" t="s">
-        <v>4446</v>
+        <v>4453</v>
       </c>
       <c r="D1122" t="s">
-        <v>4447</v>
+        <v>4454</v>
       </c>
       <c r="E1122" t="s">
-        <v>4448</v>
+        <v>4455</v>
       </c>
       <c r="F1122" t="s">
-        <v>4449</v>
+        <v>4456</v>
       </c>
       <c r="G1122" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1123" t="s">
-        <v>49</v>
-      </c>
       <c r="B1123">
-        <v>2</v>
-      </c>
-      <c r="C1123" t="s">
-        <v>4450</v>
+        <v>1</v>
       </c>
       <c r="D1123" t="s">
-        <v>4451</v>
-      </c>
-      <c r="E1123" t="s">
-        <v>4452</v>
-      </c>
-      <c r="F1123" t="s">
-        <v>4453</v>
-      </c>
-      <c r="G1123" t="s">
-        <v>34</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
@@ -41790,27 +41802,42 @@
         <v>2</v>
       </c>
       <c r="C1124" t="s">
-        <v>4454</v>
+        <v>4458</v>
       </c>
       <c r="D1124" t="s">
-        <v>4455</v>
+        <v>4459</v>
       </c>
       <c r="E1124" t="s">
-        <v>4456</v>
+        <v>4460</v>
       </c>
       <c r="F1124" t="s">
-        <v>4457</v>
+        <v>4461</v>
       </c>
       <c r="G1124" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>49</v>
+      </c>
       <c r="B1125">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>4462</v>
       </c>
       <c r="D1125" t="s">
-        <v>4458</v>
+        <v>4463</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>4464</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>4465</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
@@ -41821,19 +41848,19 @@
         <v>2</v>
       </c>
       <c r="C1126" t="s">
-        <v>4459</v>
+        <v>4466</v>
       </c>
       <c r="D1126" t="s">
-        <v>4460</v>
+        <v>4467</v>
       </c>
       <c r="E1126" t="s">
-        <v>4461</v>
+        <v>4468</v>
       </c>
       <c r="F1126" t="s">
-        <v>4462</v>
+        <v>4469</v>
       </c>
       <c r="G1126" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
@@ -41844,19 +41871,19 @@
         <v>2</v>
       </c>
       <c r="C1127" t="s">
-        <v>4463</v>
+        <v>4470</v>
       </c>
       <c r="D1127" t="s">
-        <v>4464</v>
+        <v>4471</v>
       </c>
       <c r="E1127" t="s">
-        <v>4465</v>
+        <v>4472</v>
       </c>
       <c r="F1127" t="s">
-        <v>4466</v>
+        <v>4473</v>
       </c>
       <c r="G1127" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
@@ -41867,19 +41894,19 @@
         <v>2</v>
       </c>
       <c r="C1128" t="s">
-        <v>4467</v>
+        <v>4474</v>
       </c>
       <c r="D1128" t="s">
-        <v>4468</v>
+        <v>4475</v>
       </c>
       <c r="E1128" t="s">
-        <v>4469</v>
+        <v>4476</v>
       </c>
       <c r="F1128" t="s">
-        <v>4470</v>
+        <v>4477</v>
       </c>
       <c r="G1128" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
@@ -41890,19 +41917,19 @@
         <v>2</v>
       </c>
       <c r="C1129" t="s">
-        <v>4471</v>
+        <v>4478</v>
       </c>
       <c r="D1129" t="s">
-        <v>4472</v>
+        <v>4479</v>
       </c>
       <c r="E1129" t="s">
-        <v>4473</v>
+        <v>4480</v>
       </c>
       <c r="F1129" t="s">
-        <v>4474</v>
+        <v>4481</v>
       </c>
       <c r="G1129" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
@@ -41913,19 +41940,19 @@
         <v>2</v>
       </c>
       <c r="C1130" t="s">
-        <v>4475</v>
+        <v>4482</v>
       </c>
       <c r="D1130" t="s">
-        <v>4476</v>
+        <v>4483</v>
       </c>
       <c r="E1130" t="s">
-        <v>4477</v>
+        <v>4484</v>
       </c>
       <c r="F1130" t="s">
-        <v>4478</v>
+        <v>4485</v>
       </c>
       <c r="G1130" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
@@ -41936,42 +41963,27 @@
         <v>2</v>
       </c>
       <c r="C1131" t="s">
-        <v>4479</v>
+        <v>4486</v>
       </c>
       <c r="D1131" t="s">
-        <v>4480</v>
+        <v>4487</v>
       </c>
       <c r="E1131" t="s">
-        <v>4481</v>
+        <v>4488</v>
       </c>
       <c r="F1131" t="s">
-        <v>4482</v>
+        <v>4489</v>
       </c>
       <c r="G1131" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1132" t="s">
-        <v>49</v>
-      </c>
       <c r="B1132">
-        <v>2</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>4483</v>
+        <v>1</v>
       </c>
       <c r="D1132" t="s">
-        <v>4484</v>
-      </c>
-      <c r="E1132" t="s">
-        <v>4485</v>
-      </c>
-      <c r="F1132" t="s">
-        <v>4486</v>
-      </c>
-      <c r="G1132" t="s">
-        <v>54</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
@@ -41982,27 +41994,42 @@
         <v>2</v>
       </c>
       <c r="C1133" t="s">
-        <v>4487</v>
+        <v>4491</v>
       </c>
       <c r="D1133" t="s">
-        <v>4488</v>
+        <v>4492</v>
       </c>
       <c r="E1133" t="s">
-        <v>4489</v>
+        <v>4493</v>
       </c>
       <c r="F1133" t="s">
-        <v>4490</v>
+        <v>4494</v>
       </c>
       <c r="G1133" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>49</v>
+      </c>
       <c r="B1134">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>4495</v>
       </c>
       <c r="D1134" t="s">
-        <v>4491</v>
+        <v>4496</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>4497</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>4498</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
@@ -42013,19 +42040,19 @@
         <v>2</v>
       </c>
       <c r="C1135" t="s">
-        <v>4492</v>
+        <v>4499</v>
       </c>
       <c r="D1135" t="s">
-        <v>4493</v>
+        <v>4500</v>
       </c>
       <c r="E1135" t="s">
-        <v>4494</v>
+        <v>4501</v>
       </c>
       <c r="F1135" t="s">
-        <v>4495</v>
+        <v>4502</v>
       </c>
       <c r="G1135" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
@@ -42036,19 +42063,19 @@
         <v>2</v>
       </c>
       <c r="C1136" t="s">
-        <v>4496</v>
+        <v>4503</v>
       </c>
       <c r="D1136" t="s">
-        <v>4497</v>
+        <v>4504</v>
       </c>
       <c r="E1136" t="s">
-        <v>4498</v>
+        <v>4505</v>
       </c>
       <c r="F1136" t="s">
-        <v>4499</v>
+        <v>4506</v>
       </c>
       <c r="G1136" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
@@ -42059,16 +42086,16 @@
         <v>2</v>
       </c>
       <c r="C1137" t="s">
-        <v>4500</v>
+        <v>4507</v>
       </c>
       <c r="D1137" t="s">
-        <v>4501</v>
+        <v>4508</v>
       </c>
       <c r="E1137" t="s">
-        <v>4502</v>
+        <v>4509</v>
       </c>
       <c r="F1137" t="s">
-        <v>4503</v>
+        <v>4510</v>
       </c>
       <c r="G1137" t="s">
         <v>32</v>
@@ -42082,16 +42109,16 @@
         <v>2</v>
       </c>
       <c r="C1138" t="s">
-        <v>4504</v>
+        <v>4511</v>
       </c>
       <c r="D1138" t="s">
-        <v>4505</v>
+        <v>4512</v>
       </c>
       <c r="E1138" t="s">
-        <v>4506</v>
+        <v>4513</v>
       </c>
       <c r="F1138" t="s">
-        <v>4507</v>
+        <v>4514</v>
       </c>
       <c r="G1138" t="s">
         <v>32</v>
@@ -42105,16 +42132,16 @@
         <v>2</v>
       </c>
       <c r="C1139" t="s">
-        <v>4508</v>
+        <v>4515</v>
       </c>
       <c r="D1139" t="s">
-        <v>4509</v>
+        <v>4516</v>
       </c>
       <c r="E1139" t="s">
-        <v>4510</v>
+        <v>4517</v>
       </c>
       <c r="F1139" t="s">
-        <v>4511</v>
+        <v>4518</v>
       </c>
       <c r="G1139" t="s">
         <v>32</v>
@@ -42128,16 +42155,16 @@
         <v>2</v>
       </c>
       <c r="C1140" t="s">
-        <v>4512</v>
+        <v>4519</v>
       </c>
       <c r="D1140" t="s">
-        <v>4513</v>
+        <v>4520</v>
       </c>
       <c r="E1140" t="s">
-        <v>4514</v>
+        <v>4521</v>
       </c>
       <c r="F1140" t="s">
-        <v>4515</v>
+        <v>4522</v>
       </c>
       <c r="G1140" t="s">
         <v>32</v>
@@ -42151,16 +42178,16 @@
         <v>2</v>
       </c>
       <c r="C1141" t="s">
-        <v>4516</v>
+        <v>4523</v>
       </c>
       <c r="D1141" t="s">
-        <v>4517</v>
+        <v>4524</v>
       </c>
       <c r="E1141" t="s">
-        <v>4518</v>
+        <v>4525</v>
       </c>
       <c r="F1141" t="s">
-        <v>4519</v>
+        <v>4526</v>
       </c>
       <c r="G1141" t="s">
         <v>32</v>
@@ -42174,16 +42201,16 @@
         <v>2</v>
       </c>
       <c r="C1142" t="s">
-        <v>4520</v>
+        <v>4527</v>
       </c>
       <c r="D1142" t="s">
-        <v>4521</v>
+        <v>4528</v>
       </c>
       <c r="E1142" t="s">
-        <v>4522</v>
+        <v>4529</v>
       </c>
       <c r="F1142" t="s">
-        <v>4523</v>
+        <v>4530</v>
       </c>
       <c r="G1142" t="s">
         <v>32</v>
@@ -42197,16 +42224,16 @@
         <v>2</v>
       </c>
       <c r="C1143" t="s">
-        <v>4524</v>
+        <v>4531</v>
       </c>
       <c r="D1143" t="s">
-        <v>4525</v>
+        <v>4532</v>
       </c>
       <c r="E1143" t="s">
-        <v>4526</v>
+        <v>4533</v>
       </c>
       <c r="F1143" t="s">
-        <v>4527</v>
+        <v>4534</v>
       </c>
       <c r="G1143" t="s">
         <v>32</v>
@@ -42220,16 +42247,16 @@
         <v>2</v>
       </c>
       <c r="C1144" t="s">
-        <v>4528</v>
+        <v>4535</v>
       </c>
       <c r="D1144" t="s">
-        <v>4529</v>
+        <v>4536</v>
       </c>
       <c r="E1144" t="s">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="F1144" t="s">
-        <v>4531</v>
+        <v>4538</v>
       </c>
       <c r="G1144" t="s">
         <v>32</v>
@@ -42243,16 +42270,16 @@
         <v>2</v>
       </c>
       <c r="C1145" t="s">
-        <v>4532</v>
+        <v>4539</v>
       </c>
       <c r="D1145" t="s">
-        <v>4533</v>
+        <v>4540</v>
       </c>
       <c r="E1145" t="s">
-        <v>4534</v>
+        <v>4541</v>
       </c>
       <c r="F1145" t="s">
-        <v>4535</v>
+        <v>4542</v>
       </c>
       <c r="G1145" t="s">
         <v>32</v>
@@ -42266,16 +42293,16 @@
         <v>2</v>
       </c>
       <c r="C1146" t="s">
-        <v>4536</v>
+        <v>4543</v>
       </c>
       <c r="D1146" t="s">
-        <v>4537</v>
+        <v>4544</v>
       </c>
       <c r="E1146" t="s">
-        <v>4538</v>
+        <v>4545</v>
       </c>
       <c r="F1146" t="s">
-        <v>4539</v>
+        <v>4546</v>
       </c>
       <c r="G1146" t="s">
         <v>32</v>
@@ -42289,16 +42316,16 @@
         <v>2</v>
       </c>
       <c r="C1147" t="s">
-        <v>4540</v>
+        <v>4547</v>
       </c>
       <c r="D1147" t="s">
-        <v>4541</v>
+        <v>4548</v>
       </c>
       <c r="E1147" t="s">
-        <v>4542</v>
+        <v>4549</v>
       </c>
       <c r="F1147" t="s">
-        <v>4543</v>
+        <v>4550</v>
       </c>
       <c r="G1147" t="s">
         <v>32</v>
@@ -42312,42 +42339,27 @@
         <v>2</v>
       </c>
       <c r="C1148" t="s">
-        <v>4544</v>
+        <v>4551</v>
       </c>
       <c r="D1148" t="s">
-        <v>4545</v>
+        <v>4552</v>
       </c>
       <c r="E1148" t="s">
-        <v>4546</v>
+        <v>4553</v>
       </c>
       <c r="F1148" t="s">
-        <v>4547</v>
+        <v>4554</v>
       </c>
       <c r="G1148" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1149" t="s">
-        <v>49</v>
-      </c>
       <c r="B1149">
-        <v>2</v>
-      </c>
-      <c r="C1149" t="s">
-        <v>4548</v>
+        <v>1</v>
       </c>
       <c r="D1149" t="s">
-        <v>4549</v>
-      </c>
-      <c r="E1149" t="s">
-        <v>4550</v>
-      </c>
-      <c r="F1149" t="s">
-        <v>4551</v>
-      </c>
-      <c r="G1149" t="s">
-        <v>32</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
@@ -42358,27 +42370,42 @@
         <v>2</v>
       </c>
       <c r="C1150" t="s">
-        <v>4552</v>
+        <v>4556</v>
       </c>
       <c r="D1150" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
       <c r="E1150" t="s">
-        <v>4554</v>
+        <v>4557</v>
       </c>
       <c r="F1150" t="s">
-        <v>4555</v>
+        <v>4558</v>
       </c>
       <c r="G1150" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>49</v>
+      </c>
       <c r="B1151">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>4559</v>
       </c>
       <c r="D1151" t="s">
-        <v>4556</v>
+        <v>4560</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>4561</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>4562</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
@@ -42389,19 +42416,19 @@
         <v>2</v>
       </c>
       <c r="C1152" t="s">
-        <v>4557</v>
+        <v>4563</v>
       </c>
       <c r="D1152" t="s">
-        <v>4556</v>
+        <v>4564</v>
       </c>
       <c r="E1152" t="s">
-        <v>4558</v>
+        <v>4565</v>
       </c>
       <c r="F1152" t="s">
-        <v>4559</v>
+        <v>4566</v>
       </c>
       <c r="G1152" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
@@ -42412,19 +42439,19 @@
         <v>2</v>
       </c>
       <c r="C1153" t="s">
-        <v>4560</v>
+        <v>4567</v>
       </c>
       <c r="D1153" t="s">
-        <v>4561</v>
+        <v>4568</v>
       </c>
       <c r="E1153" t="s">
-        <v>4562</v>
+        <v>4569</v>
       </c>
       <c r="F1153" t="s">
-        <v>4563</v>
+        <v>4570</v>
       </c>
       <c r="G1153" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
@@ -42435,19 +42462,19 @@
         <v>2</v>
       </c>
       <c r="C1154" t="s">
-        <v>4564</v>
+        <v>4571</v>
       </c>
       <c r="D1154" t="s">
-        <v>4565</v>
+        <v>4572</v>
       </c>
       <c r="E1154" t="s">
-        <v>4566</v>
+        <v>4573</v>
       </c>
       <c r="F1154" t="s">
-        <v>4567</v>
+        <v>4574</v>
       </c>
       <c r="G1154" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
@@ -42458,19 +42485,19 @@
         <v>2</v>
       </c>
       <c r="C1155" t="s">
-        <v>4568</v>
+        <v>4575</v>
       </c>
       <c r="D1155" t="s">
-        <v>4569</v>
+        <v>4576</v>
       </c>
       <c r="E1155" t="s">
-        <v>4570</v>
+        <v>4577</v>
       </c>
       <c r="F1155" t="s">
-        <v>4571</v>
+        <v>4578</v>
       </c>
       <c r="G1155" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
@@ -42481,19 +42508,19 @@
         <v>2</v>
       </c>
       <c r="C1156" t="s">
-        <v>4572</v>
+        <v>4579</v>
       </c>
       <c r="D1156" t="s">
-        <v>4573</v>
+        <v>4580</v>
       </c>
       <c r="E1156" t="s">
-        <v>4574</v>
+        <v>4581</v>
       </c>
       <c r="F1156" t="s">
-        <v>4575</v>
+        <v>4582</v>
       </c>
       <c r="G1156" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
@@ -42504,19 +42531,19 @@
         <v>2</v>
       </c>
       <c r="C1157" t="s">
-        <v>4576</v>
+        <v>4583</v>
       </c>
       <c r="D1157" t="s">
-        <v>4577</v>
+        <v>4584</v>
       </c>
       <c r="E1157" t="s">
-        <v>4578</v>
+        <v>4585</v>
       </c>
       <c r="F1157" t="s">
-        <v>4579</v>
+        <v>4586</v>
       </c>
       <c r="G1157" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
@@ -42527,19 +42554,19 @@
         <v>2</v>
       </c>
       <c r="C1158" t="s">
-        <v>4580</v>
+        <v>4587</v>
       </c>
       <c r="D1158" t="s">
-        <v>4581</v>
+        <v>4588</v>
       </c>
       <c r="E1158" t="s">
-        <v>4582</v>
+        <v>4589</v>
       </c>
       <c r="F1158" t="s">
-        <v>4583</v>
+        <v>4590</v>
       </c>
       <c r="G1158" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
@@ -42550,16 +42577,16 @@
         <v>2</v>
       </c>
       <c r="C1159" t="s">
-        <v>4584</v>
+        <v>4591</v>
       </c>
       <c r="D1159" t="s">
-        <v>4585</v>
+        <v>4592</v>
       </c>
       <c r="E1159" t="s">
-        <v>4586</v>
+        <v>4593</v>
       </c>
       <c r="F1159" t="s">
-        <v>4587</v>
+        <v>4594</v>
       </c>
       <c r="G1159" t="s">
         <v>124</v>
@@ -42573,19 +42600,19 @@
         <v>2</v>
       </c>
       <c r="C1160" t="s">
-        <v>4588</v>
+        <v>4595</v>
       </c>
       <c r="D1160" t="s">
-        <v>4589</v>
+        <v>4596</v>
       </c>
       <c r="E1160" t="s">
-        <v>4590</v>
+        <v>4597</v>
       </c>
       <c r="F1160" t="s">
-        <v>4591</v>
+        <v>4598</v>
       </c>
       <c r="G1160" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
@@ -42596,16 +42623,16 @@
         <v>2</v>
       </c>
       <c r="C1161" t="s">
-        <v>4592</v>
+        <v>4599</v>
       </c>
       <c r="D1161" t="s">
-        <v>4593</v>
+        <v>4600</v>
       </c>
       <c r="E1161" t="s">
-        <v>4594</v>
+        <v>4601</v>
       </c>
       <c r="F1161" t="s">
-        <v>4595</v>
+        <v>4602</v>
       </c>
       <c r="G1161" t="s">
         <v>124</v>
@@ -42619,19 +42646,19 @@
         <v>2</v>
       </c>
       <c r="C1162" t="s">
-        <v>4596</v>
+        <v>4603</v>
       </c>
       <c r="D1162" t="s">
-        <v>4597</v>
+        <v>4604</v>
       </c>
       <c r="E1162" t="s">
-        <v>4598</v>
+        <v>4605</v>
       </c>
       <c r="F1162" t="s">
-        <v>4599</v>
+        <v>4606</v>
       </c>
       <c r="G1162" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
@@ -42642,16 +42669,16 @@
         <v>2</v>
       </c>
       <c r="C1163" t="s">
-        <v>4600</v>
+        <v>4607</v>
       </c>
       <c r="D1163" t="s">
-        <v>4601</v>
+        <v>4608</v>
       </c>
       <c r="E1163" t="s">
-        <v>4602</v>
+        <v>4609</v>
       </c>
       <c r="F1163" t="s">
-        <v>4603</v>
+        <v>4610</v>
       </c>
       <c r="G1163" t="s">
         <v>124</v>
@@ -42665,19 +42692,19 @@
         <v>2</v>
       </c>
       <c r="C1164" t="s">
-        <v>4604</v>
+        <v>4611</v>
       </c>
       <c r="D1164" t="s">
-        <v>4605</v>
+        <v>4612</v>
       </c>
       <c r="E1164" t="s">
-        <v>4606</v>
+        <v>4613</v>
       </c>
       <c r="F1164" t="s">
-        <v>4607</v>
+        <v>4614</v>
       </c>
       <c r="G1164" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
@@ -42688,19 +42715,19 @@
         <v>2</v>
       </c>
       <c r="C1165" t="s">
-        <v>4608</v>
+        <v>4615</v>
       </c>
       <c r="D1165" t="s">
-        <v>4609</v>
+        <v>4616</v>
       </c>
       <c r="E1165" t="s">
-        <v>4610</v>
+        <v>4617</v>
       </c>
       <c r="F1165" t="s">
-        <v>4611</v>
+        <v>4618</v>
       </c>
       <c r="G1165" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
@@ -42711,16 +42738,16 @@
         <v>2</v>
       </c>
       <c r="C1166" t="s">
-        <v>4612</v>
+        <v>4619</v>
       </c>
       <c r="D1166" t="s">
-        <v>4613</v>
+        <v>4620</v>
       </c>
       <c r="E1166" t="s">
-        <v>4614</v>
+        <v>4621</v>
       </c>
       <c r="F1166" t="s">
-        <v>4615</v>
+        <v>4622</v>
       </c>
       <c r="G1166" t="s">
         <v>124</v>
@@ -42734,19 +42761,19 @@
         <v>2</v>
       </c>
       <c r="C1167" t="s">
-        <v>4616</v>
+        <v>4623</v>
       </c>
       <c r="D1167" t="s">
-        <v>4617</v>
+        <v>4624</v>
       </c>
       <c r="E1167" t="s">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="F1167" t="s">
-        <v>4619</v>
+        <v>4626</v>
       </c>
       <c r="G1167" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
@@ -42757,16 +42784,16 @@
         <v>2</v>
       </c>
       <c r="C1168" t="s">
-        <v>4620</v>
+        <v>4627</v>
       </c>
       <c r="D1168" t="s">
-        <v>4621</v>
+        <v>4628</v>
       </c>
       <c r="E1168" t="s">
-        <v>4622</v>
+        <v>4629</v>
       </c>
       <c r="F1168" t="s">
-        <v>4623</v>
+        <v>4630</v>
       </c>
       <c r="G1168" t="s">
         <v>124</v>
@@ -42780,19 +42807,19 @@
         <v>2</v>
       </c>
       <c r="C1169" t="s">
-        <v>4624</v>
+        <v>4631</v>
       </c>
       <c r="D1169" t="s">
-        <v>4625</v>
+        <v>4632</v>
       </c>
       <c r="E1169" t="s">
-        <v>4626</v>
+        <v>4633</v>
       </c>
       <c r="F1169" t="s">
-        <v>4627</v>
+        <v>4634</v>
       </c>
       <c r="G1169" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
@@ -42803,19 +42830,19 @@
         <v>2</v>
       </c>
       <c r="C1170" t="s">
-        <v>4628</v>
+        <v>4635</v>
       </c>
       <c r="D1170" t="s">
-        <v>4629</v>
+        <v>4636</v>
       </c>
       <c r="E1170" t="s">
-        <v>4630</v>
+        <v>4637</v>
       </c>
       <c r="F1170" t="s">
-        <v>4631</v>
+        <v>4638</v>
       </c>
       <c r="G1170" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
@@ -42826,19 +42853,19 @@
         <v>2</v>
       </c>
       <c r="C1171" t="s">
-        <v>4632</v>
+        <v>4639</v>
       </c>
       <c r="D1171" t="s">
-        <v>4633</v>
+        <v>4640</v>
       </c>
       <c r="E1171" t="s">
-        <v>4634</v>
+        <v>4641</v>
       </c>
       <c r="F1171" t="s">
-        <v>4635</v>
+        <v>4642</v>
       </c>
       <c r="G1171" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
@@ -42849,19 +42876,19 @@
         <v>2</v>
       </c>
       <c r="C1172" t="s">
-        <v>4636</v>
+        <v>4643</v>
       </c>
       <c r="D1172" t="s">
-        <v>4637</v>
+        <v>4644</v>
       </c>
       <c r="E1172" t="s">
-        <v>4638</v>
+        <v>4645</v>
       </c>
       <c r="F1172" t="s">
-        <v>4639</v>
+        <v>4646</v>
       </c>
       <c r="G1172" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
@@ -42872,19 +42899,19 @@
         <v>2</v>
       </c>
       <c r="C1173" t="s">
-        <v>4640</v>
+        <v>4647</v>
       </c>
       <c r="D1173" t="s">
-        <v>4641</v>
+        <v>4648</v>
       </c>
       <c r="E1173" t="s">
-        <v>4642</v>
+        <v>4649</v>
       </c>
       <c r="F1173" t="s">
-        <v>4643</v>
+        <v>4650</v>
       </c>
       <c r="G1173" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
@@ -42895,19 +42922,19 @@
         <v>2</v>
       </c>
       <c r="C1174" t="s">
-        <v>4644</v>
+        <v>4651</v>
       </c>
       <c r="D1174" t="s">
-        <v>4645</v>
+        <v>4652</v>
       </c>
       <c r="E1174" t="s">
-        <v>4646</v>
+        <v>4653</v>
       </c>
       <c r="F1174" t="s">
-        <v>4647</v>
+        <v>4654</v>
       </c>
       <c r="G1174" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
@@ -42918,16 +42945,16 @@
         <v>2</v>
       </c>
       <c r="C1175" t="s">
-        <v>4648</v>
+        <v>4655</v>
       </c>
       <c r="D1175" t="s">
-        <v>4649</v>
+        <v>4656</v>
       </c>
       <c r="E1175" t="s">
-        <v>4650</v>
+        <v>4657</v>
       </c>
       <c r="F1175" t="s">
-        <v>4651</v>
+        <v>4658</v>
       </c>
       <c r="G1175" t="s">
         <v>124</v>
@@ -42941,19 +42968,19 @@
         <v>2</v>
       </c>
       <c r="C1176" t="s">
-        <v>4652</v>
+        <v>4659</v>
       </c>
       <c r="D1176" t="s">
-        <v>4653</v>
+        <v>4660</v>
       </c>
       <c r="E1176" t="s">
-        <v>4654</v>
+        <v>4661</v>
       </c>
       <c r="F1176" t="s">
-        <v>4655</v>
+        <v>4662</v>
       </c>
       <c r="G1176" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
@@ -42964,19 +42991,19 @@
         <v>2</v>
       </c>
       <c r="C1177" t="s">
-        <v>4656</v>
+        <v>4663</v>
       </c>
       <c r="D1177" t="s">
-        <v>4657</v>
+        <v>4664</v>
       </c>
       <c r="E1177" t="s">
-        <v>4658</v>
+        <v>4665</v>
       </c>
       <c r="F1177" t="s">
-        <v>4659</v>
+        <v>4666</v>
       </c>
       <c r="G1177" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
@@ -42987,16 +43014,16 @@
         <v>2</v>
       </c>
       <c r="C1178" t="s">
-        <v>4660</v>
+        <v>4667</v>
       </c>
       <c r="D1178" t="s">
-        <v>4661</v>
+        <v>4668</v>
       </c>
       <c r="E1178" t="s">
-        <v>4662</v>
+        <v>4669</v>
       </c>
       <c r="F1178" t="s">
-        <v>4663</v>
+        <v>4670</v>
       </c>
       <c r="G1178" t="s">
         <v>124</v>
@@ -43010,19 +43037,19 @@
         <v>2</v>
       </c>
       <c r="C1179" t="s">
-        <v>4664</v>
+        <v>4671</v>
       </c>
       <c r="D1179" t="s">
-        <v>4665</v>
+        <v>4672</v>
       </c>
       <c r="E1179" t="s">
-        <v>4666</v>
+        <v>4673</v>
       </c>
       <c r="F1179" t="s">
-        <v>4667</v>
+        <v>4674</v>
       </c>
       <c r="G1179" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
@@ -43033,19 +43060,19 @@
         <v>2</v>
       </c>
       <c r="C1180" t="s">
-        <v>4668</v>
+        <v>4675</v>
       </c>
       <c r="D1180" t="s">
-        <v>4669</v>
+        <v>4676</v>
       </c>
       <c r="E1180" t="s">
-        <v>4670</v>
+        <v>4677</v>
       </c>
       <c r="F1180" t="s">
-        <v>4671</v>
+        <v>4678</v>
       </c>
       <c r="G1180" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
@@ -43056,16 +43083,16 @@
         <v>2</v>
       </c>
       <c r="C1181" t="s">
-        <v>4672</v>
+        <v>4679</v>
       </c>
       <c r="D1181" t="s">
-        <v>4673</v>
+        <v>4680</v>
       </c>
       <c r="E1181" t="s">
-        <v>4674</v>
+        <v>4681</v>
       </c>
       <c r="F1181" t="s">
-        <v>4675</v>
+        <v>4682</v>
       </c>
       <c r="G1181" t="s">
         <v>124</v>
@@ -43079,19 +43106,19 @@
         <v>2</v>
       </c>
       <c r="C1182" t="s">
-        <v>4676</v>
+        <v>4683</v>
       </c>
       <c r="D1182" t="s">
-        <v>4677</v>
+        <v>4684</v>
       </c>
       <c r="E1182" t="s">
-        <v>4678</v>
+        <v>4685</v>
       </c>
       <c r="F1182" t="s">
-        <v>4679</v>
+        <v>4686</v>
       </c>
       <c r="G1182" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
@@ -43102,19 +43129,19 @@
         <v>2</v>
       </c>
       <c r="C1183" t="s">
-        <v>4680</v>
+        <v>4687</v>
       </c>
       <c r="D1183" t="s">
-        <v>4681</v>
+        <v>4688</v>
       </c>
       <c r="E1183" t="s">
-        <v>4682</v>
+        <v>4689</v>
       </c>
       <c r="F1183" t="s">
-        <v>4683</v>
+        <v>4690</v>
       </c>
       <c r="G1183" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
@@ -43125,16 +43152,16 @@
         <v>2</v>
       </c>
       <c r="C1184" t="s">
-        <v>4684</v>
+        <v>4691</v>
       </c>
       <c r="D1184" t="s">
-        <v>4685</v>
+        <v>4692</v>
       </c>
       <c r="E1184" t="s">
-        <v>4686</v>
+        <v>4693</v>
       </c>
       <c r="F1184" t="s">
-        <v>4687</v>
+        <v>4694</v>
       </c>
       <c r="G1184" t="s">
         <v>32</v>
@@ -43148,16 +43175,16 @@
         <v>2</v>
       </c>
       <c r="C1185" t="s">
-        <v>4688</v>
+        <v>4695</v>
       </c>
       <c r="D1185" t="s">
-        <v>4689</v>
+        <v>4696</v>
       </c>
       <c r="E1185" t="s">
-        <v>4690</v>
+        <v>4697</v>
       </c>
       <c r="F1185" t="s">
-        <v>4691</v>
+        <v>4698</v>
       </c>
       <c r="G1185" t="s">
         <v>32</v>
@@ -43171,19 +43198,19 @@
         <v>2</v>
       </c>
       <c r="C1186" t="s">
-        <v>4692</v>
+        <v>4699</v>
       </c>
       <c r="D1186" t="s">
-        <v>4693</v>
+        <v>4700</v>
       </c>
       <c r="E1186" t="s">
-        <v>4694</v>
+        <v>4701</v>
       </c>
       <c r="F1186" t="s">
-        <v>4695</v>
+        <v>4702</v>
       </c>
       <c r="G1186" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
@@ -43194,19 +43221,19 @@
         <v>2</v>
       </c>
       <c r="C1187" t="s">
-        <v>4696</v>
+        <v>4703</v>
       </c>
       <c r="D1187" t="s">
-        <v>4697</v>
+        <v>4704</v>
       </c>
       <c r="E1187" t="s">
-        <v>4698</v>
+        <v>4705</v>
       </c>
       <c r="F1187" t="s">
-        <v>4699</v>
+        <v>4706</v>
       </c>
       <c r="G1187" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
@@ -43217,19 +43244,19 @@
         <v>2</v>
       </c>
       <c r="C1188" t="s">
-        <v>4700</v>
+        <v>4707</v>
       </c>
       <c r="D1188" t="s">
-        <v>4701</v>
+        <v>4708</v>
       </c>
       <c r="E1188" t="s">
-        <v>4702</v>
+        <v>4709</v>
       </c>
       <c r="F1188" t="s">
-        <v>4703</v>
+        <v>4710</v>
       </c>
       <c r="G1188" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
@@ -43240,16 +43267,16 @@
         <v>2</v>
       </c>
       <c r="C1189" t="s">
-        <v>4704</v>
+        <v>4711</v>
       </c>
       <c r="D1189" t="s">
-        <v>4705</v>
+        <v>4712</v>
       </c>
       <c r="E1189" t="s">
-        <v>4706</v>
+        <v>4713</v>
       </c>
       <c r="F1189" t="s">
-        <v>4707</v>
+        <v>4714</v>
       </c>
       <c r="G1189" t="s">
         <v>124</v>
@@ -43263,19 +43290,19 @@
         <v>2</v>
       </c>
       <c r="C1190" t="s">
-        <v>4708</v>
+        <v>4715</v>
       </c>
       <c r="D1190" t="s">
-        <v>4709</v>
+        <v>4716</v>
       </c>
       <c r="E1190" t="s">
-        <v>4710</v>
+        <v>4717</v>
       </c>
       <c r="F1190" t="s">
-        <v>4711</v>
+        <v>4718</v>
       </c>
       <c r="G1190" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
@@ -43286,16 +43313,16 @@
         <v>2</v>
       </c>
       <c r="C1191" t="s">
-        <v>4712</v>
+        <v>4719</v>
       </c>
       <c r="D1191" t="s">
-        <v>4713</v>
+        <v>4720</v>
       </c>
       <c r="E1191" t="s">
-        <v>4714</v>
+        <v>4721</v>
       </c>
       <c r="F1191" t="s">
-        <v>4715</v>
+        <v>4722</v>
       </c>
       <c r="G1191" t="s">
         <v>124</v>
@@ -43309,19 +43336,19 @@
         <v>2</v>
       </c>
       <c r="C1192" t="s">
-        <v>4716</v>
+        <v>4723</v>
       </c>
       <c r="D1192" t="s">
-        <v>4717</v>
+        <v>4724</v>
       </c>
       <c r="E1192" t="s">
-        <v>4718</v>
+        <v>4725</v>
       </c>
       <c r="F1192" t="s">
-        <v>4719</v>
+        <v>4726</v>
       </c>
       <c r="G1192" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
@@ -43332,16 +43359,16 @@
         <v>2</v>
       </c>
       <c r="C1193" t="s">
-        <v>4720</v>
+        <v>4727</v>
       </c>
       <c r="D1193" t="s">
-        <v>4721</v>
+        <v>4728</v>
       </c>
       <c r="E1193" t="s">
-        <v>4722</v>
+        <v>4729</v>
       </c>
       <c r="F1193" t="s">
-        <v>4723</v>
+        <v>4730</v>
       </c>
       <c r="G1193" t="s">
         <v>124</v>
@@ -43355,16 +43382,16 @@
         <v>2</v>
       </c>
       <c r="C1194" t="s">
-        <v>4724</v>
+        <v>4731</v>
       </c>
       <c r="D1194" t="s">
-        <v>4725</v>
+        <v>4732</v>
       </c>
       <c r="E1194" t="s">
-        <v>4726</v>
+        <v>4733</v>
       </c>
       <c r="F1194" t="s">
-        <v>4727</v>
+        <v>4734</v>
       </c>
       <c r="G1194" t="s">
         <v>124</v>
@@ -43378,16 +43405,16 @@
         <v>2</v>
       </c>
       <c r="C1195" t="s">
-        <v>4728</v>
+        <v>4735</v>
       </c>
       <c r="D1195" t="s">
-        <v>4729</v>
+        <v>4736</v>
       </c>
       <c r="E1195" t="s">
-        <v>4730</v>
+        <v>4737</v>
       </c>
       <c r="F1195" t="s">
-        <v>4731</v>
+        <v>4738</v>
       </c>
       <c r="G1195" t="s">
         <v>124</v>
@@ -43401,16 +43428,16 @@
         <v>2</v>
       </c>
       <c r="C1196" t="s">
-        <v>4732</v>
+        <v>4739</v>
       </c>
       <c r="D1196" t="s">
-        <v>4733</v>
+        <v>4740</v>
       </c>
       <c r="E1196" t="s">
-        <v>4734</v>
+        <v>4741</v>
       </c>
       <c r="F1196" t="s">
-        <v>4735</v>
+        <v>4742</v>
       </c>
       <c r="G1196" t="s">
         <v>124</v>
@@ -43424,19 +43451,19 @@
         <v>2</v>
       </c>
       <c r="C1197" t="s">
-        <v>4736</v>
+        <v>4743</v>
       </c>
       <c r="D1197" t="s">
-        <v>4737</v>
+        <v>4744</v>
       </c>
       <c r="E1197" t="s">
-        <v>4738</v>
+        <v>4745</v>
       </c>
       <c r="F1197" t="s">
-        <v>4739</v>
+        <v>4746</v>
       </c>
       <c r="G1197" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
@@ -43447,16 +43474,16 @@
         <v>2</v>
       </c>
       <c r="C1198" t="s">
-        <v>4740</v>
+        <v>4747</v>
       </c>
       <c r="D1198" t="s">
-        <v>4741</v>
+        <v>4748</v>
       </c>
       <c r="E1198" t="s">
-        <v>4742</v>
+        <v>4749</v>
       </c>
       <c r="F1198" t="s">
-        <v>4743</v>
+        <v>4750</v>
       </c>
       <c r="G1198" t="s">
         <v>124</v>
@@ -43470,19 +43497,19 @@
         <v>2</v>
       </c>
       <c r="C1199" t="s">
-        <v>4744</v>
+        <v>4751</v>
       </c>
       <c r="D1199" t="s">
-        <v>4745</v>
+        <v>4752</v>
       </c>
       <c r="E1199" t="s">
-        <v>4746</v>
+        <v>4753</v>
       </c>
       <c r="F1199" t="s">
-        <v>4747</v>
+        <v>4754</v>
       </c>
       <c r="G1199" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
@@ -43493,16 +43520,16 @@
         <v>2</v>
       </c>
       <c r="C1200" t="s">
-        <v>4748</v>
+        <v>4755</v>
       </c>
       <c r="D1200" t="s">
-        <v>4749</v>
+        <v>4756</v>
       </c>
       <c r="E1200" t="s">
-        <v>4750</v>
+        <v>4757</v>
       </c>
       <c r="F1200" t="s">
-        <v>4751</v>
+        <v>4758</v>
       </c>
       <c r="G1200" t="s">
         <v>124</v>
@@ -43516,16 +43543,16 @@
         <v>2</v>
       </c>
       <c r="C1201" t="s">
-        <v>4752</v>
+        <v>4759</v>
       </c>
       <c r="D1201" t="s">
-        <v>4753</v>
+        <v>4760</v>
       </c>
       <c r="E1201" t="s">
-        <v>4754</v>
+        <v>4761</v>
       </c>
       <c r="F1201" t="s">
-        <v>4755</v>
+        <v>4762</v>
       </c>
       <c r="G1201" t="s">
         <v>124</v>
@@ -43539,19 +43566,19 @@
         <v>2</v>
       </c>
       <c r="C1202" t="s">
-        <v>4756</v>
+        <v>4763</v>
       </c>
       <c r="D1202" t="s">
-        <v>4757</v>
+        <v>4764</v>
       </c>
       <c r="E1202" t="s">
-        <v>4758</v>
+        <v>4765</v>
       </c>
       <c r="F1202" t="s">
-        <v>4759</v>
+        <v>4766</v>
       </c>
       <c r="G1202" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
@@ -43562,16 +43589,16 @@
         <v>2</v>
       </c>
       <c r="C1203" t="s">
-        <v>4760</v>
+        <v>4767</v>
       </c>
       <c r="D1203" t="s">
-        <v>4761</v>
+        <v>4768</v>
       </c>
       <c r="E1203" t="s">
-        <v>4762</v>
+        <v>4769</v>
       </c>
       <c r="F1203" t="s">
-        <v>4763</v>
+        <v>4770</v>
       </c>
       <c r="G1203" t="s">
         <v>124</v>
@@ -43585,19 +43612,19 @@
         <v>2</v>
       </c>
       <c r="C1204" t="s">
-        <v>4764</v>
+        <v>4771</v>
       </c>
       <c r="D1204" t="s">
-        <v>4765</v>
+        <v>4772</v>
       </c>
       <c r="E1204" t="s">
-        <v>4766</v>
+        <v>4773</v>
       </c>
       <c r="F1204" t="s">
-        <v>4767</v>
+        <v>4774</v>
       </c>
       <c r="G1204" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
@@ -43608,16 +43635,16 @@
         <v>2</v>
       </c>
       <c r="C1205" t="s">
-        <v>4768</v>
+        <v>4775</v>
       </c>
       <c r="D1205" t="s">
-        <v>4769</v>
+        <v>4776</v>
       </c>
       <c r="E1205" t="s">
-        <v>4770</v>
+        <v>4777</v>
       </c>
       <c r="F1205" t="s">
-        <v>4771</v>
+        <v>4778</v>
       </c>
       <c r="G1205" t="s">
         <v>124</v>
@@ -43631,16 +43658,16 @@
         <v>2</v>
       </c>
       <c r="C1206" t="s">
-        <v>4772</v>
+        <v>4779</v>
       </c>
       <c r="D1206" t="s">
-        <v>4773</v>
+        <v>4780</v>
       </c>
       <c r="E1206" t="s">
-        <v>4774</v>
+        <v>4781</v>
       </c>
       <c r="F1206" t="s">
-        <v>4775</v>
+        <v>4782</v>
       </c>
       <c r="G1206" t="s">
         <v>124</v>
@@ -43654,42 +43681,27 @@
         <v>2</v>
       </c>
       <c r="C1207" t="s">
-        <v>4776</v>
+        <v>4783</v>
       </c>
       <c r="D1207" t="s">
-        <v>4777</v>
+        <v>4784</v>
       </c>
       <c r="E1207" t="s">
-        <v>4778</v>
+        <v>4785</v>
       </c>
       <c r="F1207" t="s">
-        <v>4779</v>
+        <v>4786</v>
       </c>
       <c r="G1207" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1208" t="s">
-        <v>49</v>
-      </c>
       <c r="B1208">
-        <v>2</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>4780</v>
+        <v>1</v>
       </c>
       <c r="D1208" t="s">
-        <v>4781</v>
-      </c>
-      <c r="E1208" t="s">
-        <v>4782</v>
-      </c>
-      <c r="F1208" t="s">
-        <v>4783</v>
-      </c>
-      <c r="G1208" t="s">
-        <v>124</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
@@ -43700,27 +43712,42 @@
         <v>2</v>
       </c>
       <c r="C1209" t="s">
-        <v>4784</v>
+        <v>4788</v>
       </c>
       <c r="D1209" t="s">
-        <v>4785</v>
+        <v>4787</v>
       </c>
       <c r="E1209" t="s">
-        <v>4786</v>
+        <v>4789</v>
       </c>
       <c r="F1209" t="s">
-        <v>4787</v>
+        <v>4790</v>
       </c>
       <c r="G1209" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>49</v>
+      </c>
       <c r="B1210">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>4791</v>
       </c>
       <c r="D1210" t="s">
-        <v>4788</v>
+        <v>4792</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>4793</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>4794</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
@@ -43731,16 +43758,16 @@
         <v>2</v>
       </c>
       <c r="C1211" t="s">
-        <v>4789</v>
+        <v>4795</v>
       </c>
       <c r="D1211" t="s">
-        <v>4788</v>
+        <v>4796</v>
       </c>
       <c r="E1211" t="s">
-        <v>4790</v>
+        <v>4797</v>
       </c>
       <c r="F1211" t="s">
-        <v>4791</v>
+        <v>4798</v>
       </c>
       <c r="G1211" t="s">
         <v>54</v>
@@ -43754,19 +43781,19 @@
         <v>2</v>
       </c>
       <c r="C1212" t="s">
-        <v>4792</v>
+        <v>4799</v>
       </c>
       <c r="D1212" t="s">
-        <v>4793</v>
+        <v>4800</v>
       </c>
       <c r="E1212" t="s">
-        <v>4794</v>
+        <v>4801</v>
       </c>
       <c r="F1212" t="s">
-        <v>4795</v>
+        <v>4802</v>
       </c>
       <c r="G1212" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
@@ -43777,16 +43804,16 @@
         <v>2</v>
       </c>
       <c r="C1213" t="s">
-        <v>4796</v>
+        <v>4803</v>
       </c>
       <c r="D1213" t="s">
-        <v>4797</v>
+        <v>4804</v>
       </c>
       <c r="E1213" t="s">
-        <v>4798</v>
+        <v>4805</v>
       </c>
       <c r="F1213" t="s">
-        <v>4799</v>
+        <v>4806</v>
       </c>
       <c r="G1213" t="s">
         <v>54</v>
@@ -43800,19 +43827,19 @@
         <v>2</v>
       </c>
       <c r="C1214" t="s">
-        <v>4800</v>
+        <v>4807</v>
       </c>
       <c r="D1214" t="s">
-        <v>4801</v>
+        <v>4808</v>
       </c>
       <c r="E1214" t="s">
-        <v>4802</v>
+        <v>4809</v>
       </c>
       <c r="F1214" t="s">
-        <v>4803</v>
+        <v>4810</v>
       </c>
       <c r="G1214" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
@@ -43823,16 +43850,16 @@
         <v>2</v>
       </c>
       <c r="C1215" t="s">
-        <v>4804</v>
+        <v>4811</v>
       </c>
       <c r="D1215" t="s">
-        <v>4805</v>
+        <v>4812</v>
       </c>
       <c r="E1215" t="s">
-        <v>4806</v>
+        <v>4813</v>
       </c>
       <c r="F1215" t="s">
-        <v>4807</v>
+        <v>4814</v>
       </c>
       <c r="G1215" t="s">
         <v>54</v>
@@ -43846,19 +43873,19 @@
         <v>2</v>
       </c>
       <c r="C1216" t="s">
-        <v>4808</v>
+        <v>4815</v>
       </c>
       <c r="D1216" t="s">
-        <v>4809</v>
+        <v>4816</v>
       </c>
       <c r="E1216" t="s">
-        <v>4810</v>
+        <v>4817</v>
       </c>
       <c r="F1216" t="s">
-        <v>4811</v>
+        <v>4818</v>
       </c>
       <c r="G1216" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
@@ -43869,19 +43896,19 @@
         <v>2</v>
       </c>
       <c r="C1217" t="s">
-        <v>4812</v>
+        <v>4819</v>
       </c>
       <c r="D1217" t="s">
-        <v>4813</v>
+        <v>4820</v>
       </c>
       <c r="E1217" t="s">
-        <v>4814</v>
+        <v>4821</v>
       </c>
       <c r="F1217" t="s">
-        <v>4815</v>
+        <v>4822</v>
       </c>
       <c r="G1217" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
@@ -43892,19 +43919,19 @@
         <v>2</v>
       </c>
       <c r="C1218" t="s">
-        <v>4816</v>
+        <v>4823</v>
       </c>
       <c r="D1218" t="s">
-        <v>4817</v>
+        <v>4824</v>
       </c>
       <c r="E1218" t="s">
-        <v>4818</v>
+        <v>4825</v>
       </c>
       <c r="F1218" t="s">
-        <v>4819</v>
+        <v>4826</v>
       </c>
       <c r="G1218" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
@@ -43915,19 +43942,19 @@
         <v>2</v>
       </c>
       <c r="C1219" t="s">
-        <v>4820</v>
+        <v>4827</v>
       </c>
       <c r="D1219" t="s">
-        <v>4821</v>
+        <v>4828</v>
       </c>
       <c r="E1219" t="s">
-        <v>4822</v>
+        <v>4829</v>
       </c>
       <c r="F1219" t="s">
-        <v>4823</v>
+        <v>4830</v>
       </c>
       <c r="G1219" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
@@ -43938,19 +43965,19 @@
         <v>2</v>
       </c>
       <c r="C1220" t="s">
-        <v>4824</v>
+        <v>4831</v>
       </c>
       <c r="D1220" t="s">
-        <v>4825</v>
+        <v>4832</v>
       </c>
       <c r="E1220" t="s">
-        <v>4826</v>
+        <v>4833</v>
       </c>
       <c r="F1220" t="s">
-        <v>4827</v>
+        <v>4834</v>
       </c>
       <c r="G1220" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
@@ -43961,19 +43988,19 @@
         <v>2</v>
       </c>
       <c r="C1221" t="s">
-        <v>4828</v>
+        <v>4835</v>
       </c>
       <c r="D1221" t="s">
-        <v>4829</v>
+        <v>4836</v>
       </c>
       <c r="E1221" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="F1221" t="s">
-        <v>4831</v>
+        <v>4838</v>
       </c>
       <c r="G1221" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
@@ -43984,19 +44011,19 @@
         <v>2</v>
       </c>
       <c r="C1222" t="s">
-        <v>4832</v>
+        <v>4839</v>
       </c>
       <c r="D1222" t="s">
-        <v>4833</v>
+        <v>4840</v>
       </c>
       <c r="E1222" t="s">
-        <v>4834</v>
+        <v>4841</v>
       </c>
       <c r="F1222" t="s">
-        <v>4835</v>
+        <v>4842</v>
       </c>
       <c r="G1222" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
@@ -44007,19 +44034,19 @@
         <v>2</v>
       </c>
       <c r="C1223" t="s">
-        <v>4836</v>
+        <v>4843</v>
       </c>
       <c r="D1223" t="s">
-        <v>4837</v>
+        <v>4844</v>
       </c>
       <c r="E1223" t="s">
-        <v>4838</v>
+        <v>4845</v>
       </c>
       <c r="F1223" t="s">
-        <v>4839</v>
+        <v>4846</v>
       </c>
       <c r="G1223" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
@@ -44030,19 +44057,19 @@
         <v>2</v>
       </c>
       <c r="C1224" t="s">
-        <v>4840</v>
+        <v>4847</v>
       </c>
       <c r="D1224" t="s">
-        <v>4841</v>
+        <v>4848</v>
       </c>
       <c r="E1224" t="s">
-        <v>4842</v>
+        <v>4849</v>
       </c>
       <c r="F1224" t="s">
-        <v>4843</v>
+        <v>4850</v>
       </c>
       <c r="G1224" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
@@ -44053,16 +44080,16 @@
         <v>2</v>
       </c>
       <c r="C1225" t="s">
-        <v>4844</v>
+        <v>4851</v>
       </c>
       <c r="D1225" t="s">
-        <v>4845</v>
+        <v>4852</v>
       </c>
       <c r="E1225" t="s">
-        <v>4846</v>
+        <v>4853</v>
       </c>
       <c r="F1225" t="s">
-        <v>4847</v>
+        <v>4854</v>
       </c>
       <c r="G1225" t="s">
         <v>124</v>
@@ -44076,19 +44103,19 @@
         <v>2</v>
       </c>
       <c r="C1226" t="s">
-        <v>4848</v>
+        <v>4855</v>
       </c>
       <c r="D1226" t="s">
-        <v>4849</v>
+        <v>4856</v>
       </c>
       <c r="E1226" t="s">
-        <v>4850</v>
+        <v>4857</v>
       </c>
       <c r="F1226" t="s">
-        <v>4851</v>
+        <v>4858</v>
       </c>
       <c r="G1226" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
@@ -44099,19 +44126,19 @@
         <v>2</v>
       </c>
       <c r="C1227" t="s">
-        <v>4852</v>
+        <v>4859</v>
       </c>
       <c r="D1227" t="s">
-        <v>4853</v>
+        <v>4860</v>
       </c>
       <c r="E1227" t="s">
-        <v>4854</v>
+        <v>4861</v>
       </c>
       <c r="F1227" t="s">
-        <v>4855</v>
+        <v>4862</v>
       </c>
       <c r="G1227" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
@@ -44122,19 +44149,19 @@
         <v>2</v>
       </c>
       <c r="C1228" t="s">
-        <v>4856</v>
+        <v>4863</v>
       </c>
       <c r="D1228" t="s">
-        <v>4857</v>
+        <v>4864</v>
       </c>
       <c r="E1228" t="s">
-        <v>4858</v>
+        <v>4865</v>
       </c>
       <c r="F1228" t="s">
-        <v>4859</v>
+        <v>4866</v>
       </c>
       <c r="G1228" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
@@ -44145,19 +44172,19 @@
         <v>2</v>
       </c>
       <c r="C1229" t="s">
-        <v>4860</v>
+        <v>4867</v>
       </c>
       <c r="D1229" t="s">
-        <v>4861</v>
+        <v>4868</v>
       </c>
       <c r="E1229" t="s">
-        <v>4862</v>
+        <v>4869</v>
       </c>
       <c r="F1229" t="s">
-        <v>4863</v>
+        <v>4870</v>
       </c>
       <c r="G1229" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.3">
@@ -44168,19 +44195,19 @@
         <v>2</v>
       </c>
       <c r="C1230" t="s">
-        <v>4864</v>
+        <v>4871</v>
       </c>
       <c r="D1230" t="s">
-        <v>4865</v>
+        <v>4872</v>
       </c>
       <c r="E1230" t="s">
-        <v>4866</v>
+        <v>4873</v>
       </c>
       <c r="F1230" t="s">
-        <v>4867</v>
+        <v>4874</v>
       </c>
       <c r="G1230" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
@@ -44191,19 +44218,19 @@
         <v>2</v>
       </c>
       <c r="C1231" t="s">
-        <v>4868</v>
+        <v>4875</v>
       </c>
       <c r="D1231" t="s">
-        <v>4869</v>
+        <v>4876</v>
       </c>
       <c r="E1231" t="s">
-        <v>4870</v>
+        <v>4877</v>
       </c>
       <c r="F1231" t="s">
-        <v>4871</v>
+        <v>4878</v>
       </c>
       <c r="G1231" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
@@ -44214,19 +44241,19 @@
         <v>2</v>
       </c>
       <c r="C1232" t="s">
-        <v>4872</v>
+        <v>4879</v>
       </c>
       <c r="D1232" t="s">
-        <v>4873</v>
+        <v>4880</v>
       </c>
       <c r="E1232" t="s">
-        <v>4874</v>
+        <v>4881</v>
       </c>
       <c r="F1232" t="s">
-        <v>4875</v>
+        <v>4882</v>
       </c>
       <c r="G1232" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
@@ -44237,19 +44264,19 @@
         <v>2</v>
       </c>
       <c r="C1233" t="s">
-        <v>4876</v>
+        <v>4883</v>
       </c>
       <c r="D1233" t="s">
-        <v>4877</v>
+        <v>4884</v>
       </c>
       <c r="E1233" t="s">
-        <v>4878</v>
+        <v>4885</v>
       </c>
       <c r="F1233" t="s">
-        <v>4879</v>
+        <v>4886</v>
       </c>
       <c r="G1233" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
@@ -44260,19 +44287,19 @@
         <v>2</v>
       </c>
       <c r="C1234" t="s">
-        <v>4880</v>
+        <v>4887</v>
       </c>
       <c r="D1234" t="s">
-        <v>4881</v>
+        <v>4888</v>
       </c>
       <c r="E1234" t="s">
-        <v>4882</v>
+        <v>4889</v>
       </c>
       <c r="F1234" t="s">
-        <v>4883</v>
+        <v>4890</v>
       </c>
       <c r="G1234" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
@@ -44283,19 +44310,19 @@
         <v>2</v>
       </c>
       <c r="C1235" t="s">
-        <v>4884</v>
+        <v>4891</v>
       </c>
       <c r="D1235" t="s">
-        <v>4885</v>
+        <v>4892</v>
       </c>
       <c r="E1235" t="s">
-        <v>4886</v>
+        <v>4893</v>
       </c>
       <c r="F1235" t="s">
-        <v>4887</v>
+        <v>4894</v>
       </c>
       <c r="G1235" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
@@ -44306,42 +44333,27 @@
         <v>2</v>
       </c>
       <c r="C1236" t="s">
-        <v>4888</v>
+        <v>4895</v>
       </c>
       <c r="D1236" t="s">
-        <v>4889</v>
+        <v>4896</v>
       </c>
       <c r="E1236" t="s">
-        <v>4890</v>
+        <v>4897</v>
       </c>
       <c r="F1236" t="s">
-        <v>4891</v>
+        <v>4898</v>
       </c>
       <c r="G1236" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1237" t="s">
-        <v>49</v>
-      </c>
       <c r="B1237">
-        <v>2</v>
-      </c>
-      <c r="C1237" t="s">
-        <v>4892</v>
+        <v>1</v>
       </c>
       <c r="D1237" t="s">
-        <v>4893</v>
-      </c>
-      <c r="E1237" t="s">
-        <v>4894</v>
-      </c>
-      <c r="F1237" t="s">
-        <v>4895</v>
-      </c>
-      <c r="G1237" t="s">
-        <v>54</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
@@ -44352,27 +44364,42 @@
         <v>2</v>
       </c>
       <c r="C1238" t="s">
-        <v>4896</v>
+        <v>4900</v>
       </c>
       <c r="D1238" t="s">
-        <v>4897</v>
+        <v>4901</v>
       </c>
       <c r="E1238" t="s">
-        <v>4898</v>
+        <v>4902</v>
       </c>
       <c r="F1238" t="s">
-        <v>4899</v>
+        <v>4903</v>
       </c>
       <c r="G1238" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>49</v>
+      </c>
       <c r="B1239">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>4904</v>
       </c>
       <c r="D1239" t="s">
-        <v>4900</v>
+        <v>4905</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>4906</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>4907</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.3">
@@ -44383,16 +44410,16 @@
         <v>2</v>
       </c>
       <c r="C1240" t="s">
-        <v>4901</v>
+        <v>4908</v>
       </c>
       <c r="D1240" t="s">
-        <v>4902</v>
+        <v>4909</v>
       </c>
       <c r="E1240" t="s">
-        <v>4903</v>
+        <v>4910</v>
       </c>
       <c r="F1240" t="s">
-        <v>4904</v>
+        <v>4911</v>
       </c>
       <c r="G1240" t="s">
         <v>54</v>
@@ -44406,16 +44433,16 @@
         <v>2</v>
       </c>
       <c r="C1241" t="s">
-        <v>4905</v>
+        <v>4912</v>
       </c>
       <c r="D1241" t="s">
-        <v>4906</v>
+        <v>4913</v>
       </c>
       <c r="E1241" t="s">
-        <v>4907</v>
+        <v>4914</v>
       </c>
       <c r="F1241" t="s">
-        <v>4908</v>
+        <v>4915</v>
       </c>
       <c r="G1241" t="s">
         <v>54</v>
@@ -44429,16 +44456,16 @@
         <v>2</v>
       </c>
       <c r="C1242" t="s">
-        <v>4909</v>
+        <v>4916</v>
       </c>
       <c r="D1242" t="s">
-        <v>4910</v>
+        <v>4917</v>
       </c>
       <c r="E1242" t="s">
-        <v>4911</v>
+        <v>4918</v>
       </c>
       <c r="F1242" t="s">
-        <v>4912</v>
+        <v>4919</v>
       </c>
       <c r="G1242" t="s">
         <v>54</v>
@@ -44452,19 +44479,19 @@
         <v>2</v>
       </c>
       <c r="C1243" t="s">
-        <v>4913</v>
+        <v>4920</v>
       </c>
       <c r="D1243" t="s">
-        <v>4914</v>
+        <v>4921</v>
       </c>
       <c r="E1243" t="s">
-        <v>4915</v>
+        <v>4922</v>
       </c>
       <c r="F1243" t="s">
-        <v>4916</v>
+        <v>4923</v>
       </c>
       <c r="G1243" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
@@ -44475,16 +44502,16 @@
         <v>2</v>
       </c>
       <c r="C1244" t="s">
-        <v>4917</v>
+        <v>4924</v>
       </c>
       <c r="D1244" t="s">
-        <v>4918</v>
+        <v>4925</v>
       </c>
       <c r="E1244" t="s">
-        <v>4919</v>
+        <v>4926</v>
       </c>
       <c r="F1244" t="s">
-        <v>4920</v>
+        <v>4927</v>
       </c>
       <c r="G1244" t="s">
         <v>54</v>
@@ -44498,19 +44525,19 @@
         <v>2</v>
       </c>
       <c r="C1245" t="s">
-        <v>4921</v>
+        <v>4928</v>
       </c>
       <c r="D1245" t="s">
-        <v>4922</v>
+        <v>4929</v>
       </c>
       <c r="E1245" t="s">
-        <v>4923</v>
+        <v>4930</v>
       </c>
       <c r="F1245" t="s">
-        <v>4924</v>
+        <v>4931</v>
       </c>
       <c r="G1245" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
@@ -44521,16 +44548,16 @@
         <v>2</v>
       </c>
       <c r="C1246" t="s">
-        <v>4925</v>
+        <v>4932</v>
       </c>
       <c r="D1246" t="s">
-        <v>4926</v>
+        <v>4933</v>
       </c>
       <c r="E1246" t="s">
-        <v>4927</v>
+        <v>4934</v>
       </c>
       <c r="F1246" t="s">
-        <v>4928</v>
+        <v>4935</v>
       </c>
       <c r="G1246" t="s">
         <v>54</v>
@@ -44544,19 +44571,19 @@
         <v>2</v>
       </c>
       <c r="C1247" t="s">
-        <v>4929</v>
+        <v>4936</v>
       </c>
       <c r="D1247" t="s">
-        <v>4930</v>
+        <v>4937</v>
       </c>
       <c r="E1247" t="s">
-        <v>4931</v>
+        <v>4938</v>
       </c>
       <c r="F1247" t="s">
-        <v>4932</v>
+        <v>4939</v>
       </c>
       <c r="G1247" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
@@ -44567,16 +44594,16 @@
         <v>2</v>
       </c>
       <c r="C1248" t="s">
-        <v>4933</v>
+        <v>4940</v>
       </c>
       <c r="D1248" t="s">
-        <v>4934</v>
+        <v>4941</v>
       </c>
       <c r="E1248" t="s">
-        <v>4935</v>
+        <v>4942</v>
       </c>
       <c r="F1248" t="s">
-        <v>4936</v>
+        <v>4943</v>
       </c>
       <c r="G1248" t="s">
         <v>54</v>
@@ -44590,16 +44617,16 @@
         <v>2</v>
       </c>
       <c r="C1249" t="s">
-        <v>4937</v>
+        <v>4944</v>
       </c>
       <c r="D1249" t="s">
-        <v>4938</v>
+        <v>4945</v>
       </c>
       <c r="E1249" t="s">
-        <v>4939</v>
+        <v>4946</v>
       </c>
       <c r="F1249" t="s">
-        <v>4940</v>
+        <v>4947</v>
       </c>
       <c r="G1249" t="s">
         <v>54</v>
@@ -44613,42 +44640,27 @@
         <v>2</v>
       </c>
       <c r="C1250" t="s">
-        <v>4941</v>
+        <v>4948</v>
       </c>
       <c r="D1250" t="s">
-        <v>4942</v>
+        <v>4949</v>
       </c>
       <c r="E1250" t="s">
-        <v>4943</v>
+        <v>4950</v>
       </c>
       <c r="F1250" t="s">
-        <v>4944</v>
+        <v>4951</v>
       </c>
       <c r="G1250" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1251" t="s">
-        <v>49</v>
-      </c>
       <c r="B1251">
-        <v>2</v>
-      </c>
-      <c r="C1251" t="s">
-        <v>4945</v>
+        <v>1</v>
       </c>
       <c r="D1251" t="s">
-        <v>4946</v>
-      </c>
-      <c r="E1251" t="s">
-        <v>4947</v>
-      </c>
-      <c r="F1251" t="s">
-        <v>4948</v>
-      </c>
-      <c r="G1251" t="s">
-        <v>54</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
@@ -44659,27 +44671,42 @@
         <v>2</v>
       </c>
       <c r="C1252" t="s">
-        <v>4949</v>
+        <v>4953</v>
       </c>
       <c r="D1252" t="s">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="E1252" t="s">
-        <v>4951</v>
+        <v>4955</v>
       </c>
       <c r="F1252" t="s">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="G1252" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>49</v>
+      </c>
       <c r="B1253">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>4957</v>
       </c>
       <c r="D1253" t="s">
-        <v>4953</v>
+        <v>4958</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>4959</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>4960</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
@@ -44690,19 +44717,19 @@
         <v>2</v>
       </c>
       <c r="C1254" t="s">
-        <v>4954</v>
+        <v>4961</v>
       </c>
       <c r="D1254" t="s">
-        <v>4955</v>
+        <v>4962</v>
       </c>
       <c r="E1254" t="s">
-        <v>4956</v>
+        <v>4963</v>
       </c>
       <c r="F1254" t="s">
-        <v>4957</v>
+        <v>4964</v>
       </c>
       <c r="G1254" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
@@ -44713,19 +44740,19 @@
         <v>2</v>
       </c>
       <c r="C1255" t="s">
-        <v>4958</v>
+        <v>4965</v>
       </c>
       <c r="D1255" t="s">
-        <v>4959</v>
+        <v>4966</v>
       </c>
       <c r="E1255" t="s">
-        <v>4960</v>
+        <v>4967</v>
       </c>
       <c r="F1255" t="s">
-        <v>4961</v>
+        <v>4968</v>
       </c>
       <c r="G1255" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
@@ -44736,19 +44763,19 @@
         <v>2</v>
       </c>
       <c r="C1256" t="s">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="D1256" t="s">
-        <v>4963</v>
+        <v>4970</v>
       </c>
       <c r="E1256" t="s">
-        <v>4964</v>
+        <v>4971</v>
       </c>
       <c r="F1256" t="s">
-        <v>4965</v>
+        <v>4972</v>
       </c>
       <c r="G1256" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
@@ -44759,16 +44786,16 @@
         <v>2</v>
       </c>
       <c r="C1257" t="s">
-        <v>4966</v>
+        <v>4973</v>
       </c>
       <c r="D1257" t="s">
-        <v>4967</v>
+        <v>4974</v>
       </c>
       <c r="E1257" t="s">
-        <v>4968</v>
+        <v>4975</v>
       </c>
       <c r="F1257" t="s">
-        <v>4969</v>
+        <v>4976</v>
       </c>
       <c r="G1257" t="s">
         <v>32</v>
@@ -44782,16 +44809,16 @@
         <v>2</v>
       </c>
       <c r="C1258" t="s">
-        <v>4970</v>
+        <v>4977</v>
       </c>
       <c r="D1258" t="s">
-        <v>4971</v>
+        <v>4978</v>
       </c>
       <c r="E1258" t="s">
-        <v>4972</v>
+        <v>4979</v>
       </c>
       <c r="F1258" t="s">
-        <v>4973</v>
+        <v>4980</v>
       </c>
       <c r="G1258" t="s">
         <v>124</v>
@@ -44805,16 +44832,16 @@
         <v>2</v>
       </c>
       <c r="C1259" t="s">
-        <v>4974</v>
+        <v>4981</v>
       </c>
       <c r="D1259" t="s">
-        <v>4975</v>
+        <v>4982</v>
       </c>
       <c r="E1259" t="s">
-        <v>4976</v>
+        <v>4983</v>
       </c>
       <c r="F1259" t="s">
-        <v>4977</v>
+        <v>4984</v>
       </c>
       <c r="G1259" t="s">
         <v>32</v>
@@ -44828,16 +44855,16 @@
         <v>2</v>
       </c>
       <c r="C1260" t="s">
-        <v>4978</v>
+        <v>4985</v>
       </c>
       <c r="D1260" t="s">
-        <v>4979</v>
+        <v>4986</v>
       </c>
       <c r="E1260" t="s">
-        <v>4980</v>
+        <v>4987</v>
       </c>
       <c r="F1260" t="s">
-        <v>4981</v>
+        <v>4988</v>
       </c>
       <c r="G1260" t="s">
         <v>124</v>
@@ -44851,19 +44878,19 @@
         <v>2</v>
       </c>
       <c r="C1261" t="s">
-        <v>4982</v>
+        <v>4989</v>
       </c>
       <c r="D1261" t="s">
-        <v>4983</v>
+        <v>4990</v>
       </c>
       <c r="E1261" t="s">
-        <v>4984</v>
+        <v>4991</v>
       </c>
       <c r="F1261" t="s">
-        <v>4985</v>
+        <v>4992</v>
       </c>
       <c r="G1261" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
@@ -44874,19 +44901,19 @@
         <v>2</v>
       </c>
       <c r="C1262" t="s">
-        <v>4986</v>
+        <v>4993</v>
       </c>
       <c r="D1262" t="s">
-        <v>4987</v>
+        <v>4994</v>
       </c>
       <c r="E1262" t="s">
-        <v>4988</v>
+        <v>4995</v>
       </c>
       <c r="F1262" t="s">
-        <v>4989</v>
+        <v>4996</v>
       </c>
       <c r="G1262" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.3">
@@ -44897,19 +44924,19 @@
         <v>2</v>
       </c>
       <c r="C1263" t="s">
-        <v>4990</v>
+        <v>4997</v>
       </c>
       <c r="D1263" t="s">
-        <v>4991</v>
+        <v>4998</v>
       </c>
       <c r="E1263" t="s">
-        <v>4992</v>
+        <v>4999</v>
       </c>
       <c r="F1263" t="s">
-        <v>4993</v>
+        <v>5000</v>
       </c>
       <c r="G1263" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
@@ -44920,19 +44947,19 @@
         <v>2</v>
       </c>
       <c r="C1264" t="s">
-        <v>4994</v>
+        <v>5001</v>
       </c>
       <c r="D1264" t="s">
-        <v>4995</v>
+        <v>5002</v>
       </c>
       <c r="E1264" t="s">
-        <v>4996</v>
+        <v>5003</v>
       </c>
       <c r="F1264" t="s">
-        <v>4997</v>
+        <v>5004</v>
       </c>
       <c r="G1264" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
@@ -44943,16 +44970,16 @@
         <v>2</v>
       </c>
       <c r="C1265" t="s">
-        <v>4998</v>
+        <v>5005</v>
       </c>
       <c r="D1265" t="s">
-        <v>4999</v>
+        <v>5006</v>
       </c>
       <c r="E1265" t="s">
-        <v>5000</v>
+        <v>5007</v>
       </c>
       <c r="F1265" t="s">
-        <v>5001</v>
+        <v>5008</v>
       </c>
       <c r="G1265" t="s">
         <v>124</v>
@@ -44966,19 +44993,19 @@
         <v>2</v>
       </c>
       <c r="C1266" t="s">
-        <v>5002</v>
+        <v>5009</v>
       </c>
       <c r="D1266" t="s">
-        <v>5003</v>
+        <v>5010</v>
       </c>
       <c r="E1266" t="s">
-        <v>5004</v>
+        <v>5011</v>
       </c>
       <c r="F1266" t="s">
-        <v>5005</v>
+        <v>5012</v>
       </c>
       <c r="G1266" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
@@ -44989,16 +45016,16 @@
         <v>2</v>
       </c>
       <c r="C1267" t="s">
-        <v>5006</v>
+        <v>5013</v>
       </c>
       <c r="D1267" t="s">
-        <v>5007</v>
+        <v>5014</v>
       </c>
       <c r="E1267" t="s">
-        <v>5008</v>
+        <v>5015</v>
       </c>
       <c r="F1267" t="s">
-        <v>5009</v>
+        <v>5016</v>
       </c>
       <c r="G1267" t="s">
         <v>124</v>
@@ -45012,16 +45039,16 @@
         <v>2</v>
       </c>
       <c r="C1268" t="s">
-        <v>5010</v>
+        <v>5017</v>
       </c>
       <c r="D1268" t="s">
-        <v>5011</v>
+        <v>5018</v>
       </c>
       <c r="E1268" t="s">
-        <v>5012</v>
+        <v>5019</v>
       </c>
       <c r="F1268" t="s">
-        <v>5013</v>
+        <v>5020</v>
       </c>
       <c r="G1268" t="s">
         <v>124</v>
@@ -45035,16 +45062,16 @@
         <v>2</v>
       </c>
       <c r="C1269" t="s">
-        <v>5014</v>
+        <v>5021</v>
       </c>
       <c r="D1269" t="s">
-        <v>5015</v>
+        <v>5022</v>
       </c>
       <c r="E1269" t="s">
-        <v>5016</v>
+        <v>5023</v>
       </c>
       <c r="F1269" t="s">
-        <v>5017</v>
+        <v>5024</v>
       </c>
       <c r="G1269" t="s">
         <v>124</v>
@@ -45058,16 +45085,16 @@
         <v>2</v>
       </c>
       <c r="C1270" t="s">
-        <v>5018</v>
+        <v>5025</v>
       </c>
       <c r="D1270" t="s">
-        <v>5019</v>
+        <v>5026</v>
       </c>
       <c r="E1270" t="s">
-        <v>5020</v>
+        <v>5027</v>
       </c>
       <c r="F1270" t="s">
-        <v>5021</v>
+        <v>5028</v>
       </c>
       <c r="G1270" t="s">
         <v>124</v>
@@ -45081,19 +45108,19 @@
         <v>2</v>
       </c>
       <c r="C1271" t="s">
-        <v>5022</v>
+        <v>5029</v>
       </c>
       <c r="D1271" t="s">
-        <v>5023</v>
+        <v>5030</v>
       </c>
       <c r="E1271" t="s">
-        <v>5024</v>
+        <v>5031</v>
       </c>
       <c r="F1271" t="s">
-        <v>5025</v>
+        <v>5032</v>
       </c>
       <c r="G1271" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
@@ -45104,16 +45131,16 @@
         <v>2</v>
       </c>
       <c r="C1272" t="s">
-        <v>5026</v>
+        <v>5033</v>
       </c>
       <c r="D1272" t="s">
-        <v>5027</v>
+        <v>5034</v>
       </c>
       <c r="E1272" t="s">
-        <v>5028</v>
+        <v>5035</v>
       </c>
       <c r="F1272" t="s">
-        <v>5029</v>
+        <v>5036</v>
       </c>
       <c r="G1272" t="s">
         <v>124</v>
@@ -45127,19 +45154,19 @@
         <v>2</v>
       </c>
       <c r="C1273" t="s">
-        <v>5030</v>
+        <v>5037</v>
       </c>
       <c r="D1273" t="s">
-        <v>5031</v>
+        <v>5038</v>
       </c>
       <c r="E1273" t="s">
-        <v>5032</v>
+        <v>5039</v>
       </c>
       <c r="F1273" t="s">
-        <v>5033</v>
+        <v>5040</v>
       </c>
       <c r="G1273" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
@@ -45150,16 +45177,16 @@
         <v>2</v>
       </c>
       <c r="C1274" t="s">
-        <v>5034</v>
+        <v>5041</v>
       </c>
       <c r="D1274" t="s">
-        <v>5035</v>
+        <v>5042</v>
       </c>
       <c r="E1274" t="s">
-        <v>5036</v>
+        <v>5043</v>
       </c>
       <c r="F1274" t="s">
-        <v>5037</v>
+        <v>5044</v>
       </c>
       <c r="G1274" t="s">
         <v>124</v>
@@ -45173,16 +45200,16 @@
         <v>2</v>
       </c>
       <c r="C1275" t="s">
-        <v>5038</v>
+        <v>5045</v>
       </c>
       <c r="D1275" t="s">
-        <v>5039</v>
+        <v>5046</v>
       </c>
       <c r="E1275" t="s">
-        <v>5040</v>
+        <v>5047</v>
       </c>
       <c r="F1275" t="s">
-        <v>5041</v>
+        <v>5048</v>
       </c>
       <c r="G1275" t="s">
         <v>124</v>
@@ -45196,19 +45223,19 @@
         <v>2</v>
       </c>
       <c r="C1276" t="s">
-        <v>5042</v>
+        <v>5049</v>
       </c>
       <c r="D1276" t="s">
-        <v>5043</v>
+        <v>5050</v>
       </c>
       <c r="E1276" t="s">
-        <v>5044</v>
+        <v>5051</v>
       </c>
       <c r="F1276" t="s">
-        <v>5045</v>
+        <v>5052</v>
       </c>
       <c r="G1276" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
@@ -45219,16 +45246,16 @@
         <v>2</v>
       </c>
       <c r="C1277" t="s">
-        <v>5046</v>
+        <v>5053</v>
       </c>
       <c r="D1277" t="s">
-        <v>5047</v>
+        <v>5054</v>
       </c>
       <c r="E1277" t="s">
-        <v>5048</v>
+        <v>5055</v>
       </c>
       <c r="F1277" t="s">
-        <v>5049</v>
+        <v>5056</v>
       </c>
       <c r="G1277" t="s">
         <v>124</v>
@@ -45242,16 +45269,16 @@
         <v>2</v>
       </c>
       <c r="C1278" t="s">
-        <v>5050</v>
+        <v>5057</v>
       </c>
       <c r="D1278" t="s">
-        <v>5051</v>
+        <v>5058</v>
       </c>
       <c r="E1278" t="s">
-        <v>5052</v>
+        <v>5059</v>
       </c>
       <c r="F1278" t="s">
-        <v>5053</v>
+        <v>5060</v>
       </c>
       <c r="G1278" t="s">
         <v>32</v>
@@ -45265,19 +45292,19 @@
         <v>2</v>
       </c>
       <c r="C1279" t="s">
-        <v>5054</v>
+        <v>5061</v>
       </c>
       <c r="D1279" t="s">
-        <v>5055</v>
+        <v>5062</v>
       </c>
       <c r="E1279" t="s">
-        <v>5056</v>
+        <v>5063</v>
       </c>
       <c r="F1279" t="s">
-        <v>5057</v>
+        <v>5064</v>
       </c>
       <c r="G1279" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
@@ -45288,16 +45315,16 @@
         <v>2</v>
       </c>
       <c r="C1280" t="s">
-        <v>5058</v>
+        <v>5065</v>
       </c>
       <c r="D1280" t="s">
-        <v>5059</v>
+        <v>5066</v>
       </c>
       <c r="E1280" t="s">
-        <v>5060</v>
+        <v>5067</v>
       </c>
       <c r="F1280" t="s">
-        <v>5061</v>
+        <v>5068</v>
       </c>
       <c r="G1280" t="s">
         <v>32</v>
@@ -45311,19 +45338,19 @@
         <v>2</v>
       </c>
       <c r="C1281" t="s">
-        <v>5062</v>
+        <v>5069</v>
       </c>
       <c r="D1281" t="s">
-        <v>5063</v>
+        <v>5070</v>
       </c>
       <c r="E1281" t="s">
-        <v>5064</v>
+        <v>5071</v>
       </c>
       <c r="F1281" t="s">
-        <v>5065</v>
+        <v>5072</v>
       </c>
       <c r="G1281" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
@@ -45334,42 +45361,27 @@
         <v>2</v>
       </c>
       <c r="C1282" t="s">
-        <v>5066</v>
+        <v>5073</v>
       </c>
       <c r="D1282" t="s">
-        <v>5067</v>
+        <v>5074</v>
       </c>
       <c r="E1282" t="s">
-        <v>5068</v>
+        <v>5075</v>
       </c>
       <c r="F1282" t="s">
-        <v>5069</v>
+        <v>5076</v>
       </c>
       <c r="G1282" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1283" t="s">
-        <v>49</v>
-      </c>
       <c r="B1283">
-        <v>2</v>
-      </c>
-      <c r="C1283" t="s">
-        <v>5070</v>
+        <v>1</v>
       </c>
       <c r="D1283" t="s">
-        <v>5071</v>
-      </c>
-      <c r="E1283" t="s">
-        <v>5072</v>
-      </c>
-      <c r="F1283" t="s">
-        <v>5073</v>
-      </c>
-      <c r="G1283" t="s">
-        <v>124</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
@@ -45380,27 +45392,42 @@
         <v>2</v>
       </c>
       <c r="C1284" t="s">
-        <v>5074</v>
+        <v>5078</v>
       </c>
       <c r="D1284" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
       <c r="E1284" t="s">
-        <v>5076</v>
+        <v>5080</v>
       </c>
       <c r="F1284" t="s">
-        <v>5077</v>
+        <v>5081</v>
       </c>
       <c r="G1284" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>49</v>
+      </c>
       <c r="B1285">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>5082</v>
       </c>
       <c r="D1285" t="s">
-        <v>5078</v>
+        <v>5083</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>5084</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>5085</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
@@ -45411,19 +45438,19 @@
         <v>2</v>
       </c>
       <c r="C1286" t="s">
-        <v>5079</v>
+        <v>5086</v>
       </c>
       <c r="D1286" t="s">
-        <v>5080</v>
+        <v>5087</v>
       </c>
       <c r="E1286" t="s">
-        <v>5081</v>
+        <v>5088</v>
       </c>
       <c r="F1286" t="s">
-        <v>5082</v>
+        <v>5089</v>
       </c>
       <c r="G1286" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
@@ -45434,16 +45461,16 @@
         <v>2</v>
       </c>
       <c r="C1287" t="s">
-        <v>5083</v>
+        <v>5090</v>
       </c>
       <c r="D1287" t="s">
-        <v>5084</v>
+        <v>5091</v>
       </c>
       <c r="E1287" t="s">
-        <v>5085</v>
+        <v>5092</v>
       </c>
       <c r="F1287" t="s">
-        <v>5086</v>
+        <v>5093</v>
       </c>
       <c r="G1287" t="s">
         <v>124</v>
@@ -45457,16 +45484,16 @@
         <v>2</v>
       </c>
       <c r="C1288" t="s">
-        <v>5087</v>
+        <v>5094</v>
       </c>
       <c r="D1288" t="s">
-        <v>5088</v>
+        <v>5095</v>
       </c>
       <c r="E1288" t="s">
-        <v>5089</v>
+        <v>5096</v>
       </c>
       <c r="F1288" t="s">
-        <v>5090</v>
+        <v>5097</v>
       </c>
       <c r="G1288" t="s">
         <v>124</v>
@@ -45480,16 +45507,16 @@
         <v>2</v>
       </c>
       <c r="C1289" t="s">
-        <v>5091</v>
+        <v>5098</v>
       </c>
       <c r="D1289" t="s">
-        <v>5092</v>
+        <v>5099</v>
       </c>
       <c r="E1289" t="s">
-        <v>5093</v>
+        <v>5100</v>
       </c>
       <c r="F1289" t="s">
-        <v>5094</v>
+        <v>5101</v>
       </c>
       <c r="G1289" t="s">
         <v>124</v>
@@ -45503,16 +45530,16 @@
         <v>2</v>
       </c>
       <c r="C1290" t="s">
-        <v>5095</v>
+        <v>5102</v>
       </c>
       <c r="D1290" t="s">
-        <v>5096</v>
+        <v>5103</v>
       </c>
       <c r="E1290" t="s">
-        <v>5097</v>
+        <v>5104</v>
       </c>
       <c r="F1290" t="s">
-        <v>5098</v>
+        <v>5105</v>
       </c>
       <c r="G1290" t="s">
         <v>124</v>
@@ -45526,16 +45553,16 @@
         <v>2</v>
       </c>
       <c r="C1291" t="s">
-        <v>5099</v>
+        <v>5106</v>
       </c>
       <c r="D1291" t="s">
-        <v>5100</v>
+        <v>5107</v>
       </c>
       <c r="E1291" t="s">
-        <v>5101</v>
+        <v>5108</v>
       </c>
       <c r="F1291" t="s">
-        <v>5102</v>
+        <v>5109</v>
       </c>
       <c r="G1291" t="s">
         <v>124</v>
@@ -45549,16 +45576,16 @@
         <v>2</v>
       </c>
       <c r="C1292" t="s">
-        <v>5103</v>
+        <v>5110</v>
       </c>
       <c r="D1292" t="s">
-        <v>5104</v>
+        <v>5111</v>
       </c>
       <c r="E1292" t="s">
-        <v>5105</v>
+        <v>5112</v>
       </c>
       <c r="F1292" t="s">
-        <v>5106</v>
+        <v>5113</v>
       </c>
       <c r="G1292" t="s">
         <v>124</v>
@@ -45572,16 +45599,16 @@
         <v>2</v>
       </c>
       <c r="C1293" t="s">
-        <v>5107</v>
+        <v>5114</v>
       </c>
       <c r="D1293" t="s">
-        <v>5108</v>
+        <v>5115</v>
       </c>
       <c r="E1293" t="s">
-        <v>5109</v>
+        <v>5116</v>
       </c>
       <c r="F1293" t="s">
-        <v>5110</v>
+        <v>5117</v>
       </c>
       <c r="G1293" t="s">
         <v>124</v>
@@ -45595,16 +45622,16 @@
         <v>2</v>
       </c>
       <c r="C1294" t="s">
-        <v>5111</v>
+        <v>5118</v>
       </c>
       <c r="D1294" t="s">
-        <v>5112</v>
+        <v>5119</v>
       </c>
       <c r="E1294" t="s">
-        <v>5113</v>
+        <v>5120</v>
       </c>
       <c r="F1294" t="s">
-        <v>5114</v>
+        <v>5121</v>
       </c>
       <c r="G1294" t="s">
         <v>124</v>
@@ -45618,16 +45645,16 @@
         <v>2</v>
       </c>
       <c r="C1295" t="s">
-        <v>5115</v>
+        <v>5122</v>
       </c>
       <c r="D1295" t="s">
-        <v>5116</v>
+        <v>5123</v>
       </c>
       <c r="E1295" t="s">
-        <v>5117</v>
+        <v>5124</v>
       </c>
       <c r="F1295" t="s">
-        <v>5118</v>
+        <v>5125</v>
       </c>
       <c r="G1295" t="s">
         <v>124</v>
@@ -45641,16 +45668,16 @@
         <v>2</v>
       </c>
       <c r="C1296" t="s">
-        <v>5119</v>
+        <v>5126</v>
       </c>
       <c r="D1296" t="s">
-        <v>5120</v>
+        <v>5127</v>
       </c>
       <c r="E1296" t="s">
-        <v>5121</v>
+        <v>5128</v>
       </c>
       <c r="F1296" t="s">
-        <v>5122</v>
+        <v>5129</v>
       </c>
       <c r="G1296" t="s">
         <v>124</v>
@@ -45664,19 +45691,19 @@
         <v>2</v>
       </c>
       <c r="C1297" t="s">
-        <v>5123</v>
+        <v>5130</v>
       </c>
       <c r="D1297" t="s">
-        <v>5124</v>
+        <v>5131</v>
       </c>
       <c r="E1297" t="s">
-        <v>5125</v>
+        <v>5132</v>
       </c>
       <c r="F1297" t="s">
-        <v>5126</v>
+        <v>5133</v>
       </c>
       <c r="G1297" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
@@ -45687,64 +45714,18 @@
         <v>2</v>
       </c>
       <c r="C1298" t="s">
-        <v>5127</v>
+        <v>5134</v>
       </c>
       <c r="D1298" t="s">
-        <v>5128</v>
+        <v>5135</v>
       </c>
       <c r="E1298" t="s">
-        <v>5129</v>
+        <v>5136</v>
       </c>
       <c r="F1298" t="s">
-        <v>5130</v>
+        <v>5137</v>
       </c>
       <c r="G1298" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1299" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1299">
-        <v>2</v>
-      </c>
-      <c r="C1299" t="s">
-        <v>5131</v>
-      </c>
-      <c r="D1299" t="s">
-        <v>5132</v>
-      </c>
-      <c r="E1299" t="s">
-        <v>5133</v>
-      </c>
-      <c r="F1299" t="s">
-        <v>5134</v>
-      </c>
-      <c r="G1299" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1300" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1300">
-        <v>2</v>
-      </c>
-      <c r="C1300" t="s">
-        <v>5135</v>
-      </c>
-      <c r="D1300" t="s">
-        <v>5136</v>
-      </c>
-      <c r="E1300" t="s">
-        <v>5137</v>
-      </c>
-      <c r="F1300" t="s">
-        <v>5138</v>
-      </c>
-      <c r="G1300" t="s">
         <v>32</v>
       </c>
     </row>

--- a/tools/excel/scf/scf-2025.1.1.xlsx
+++ b/tools/excel/scf/scf-2025.1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\scf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109A9CE5-6F23-4F89-9777-93856C5096DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBF41C-55B4-4379-B8C1-763CABC64CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="-13515" windowWidth="20850" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -16157,15 +16157,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -16246,22 +16247,6 @@
       </c>
       <c r="B10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -16271,15 +16256,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -16340,9 +16326,25 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16355,9 +16357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D949" sqref="D949"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45741,6 +45743,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -45770,6 +45775,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
